--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail14 Features.xlsx
@@ -4169,7 +4169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4180,29 +4180,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4223,115 +4221,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4348,72 +4336,66 @@
         <v>1.021266671009859e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.3035494770432585</v>
+        <v>4.443701774623462e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.9246368959058628</v>
+        <v>2.206535351336478e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.443701774623462e-07</v>
+        <v>0.0236882439938447</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.206535351336478e-06</v>
+        <v>0.1769918603409439</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.0236882439938447</v>
+        <v>0.03185243098978417</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1769918603409439</v>
+        <v>1.914643089651106</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03185243098978417</v>
+        <v>2.526068741808528</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.943879108731372</v>
+        <v>5.211572166835952</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.526068741808528</v>
+        <v>5.065922813980387e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.211572166835952</v>
+        <v>2924337655.659933</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.065922813980387e-17</v>
+        <v>4.108516175678675e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>2924337655.659933</v>
+        <v>433.2250909375852</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.108516175678675e-08</v>
+        <v>0.0001639313926009915</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>433.2250909375852</v>
+        <v>9.178838350347519</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001639313926009915</v>
+        <v>1.515664591165134</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.178838350347519</v>
+        <v>0.01381139580072301</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.515664591165134</v>
+        <v>3.508418560179115</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01381139580072301</v>
+        <v>0.9592438878021461</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.508418560179115</v>
+        <v>1.157878672883033</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9592438878021461</v>
+        <v>54</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.157878672883033</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.435941144180594</v>
       </c>
     </row>
@@ -4428,72 +4410,66 @@
         <v>9.850969857801768e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.1657076070910456</v>
+        <v>3.786798504941893e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.235854738377169</v>
+        <v>2.208377011554871e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.786798504941893e-07</v>
+        <v>0.01345051788362912</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.208377011554871e-06</v>
+        <v>0.1631418708260736</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.01345051788362912</v>
+        <v>0.02677442715005899</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1631418708260736</v>
+        <v>1.923922537713516</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02677442715005899</v>
+        <v>2.618439927200014</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.949321455789398</v>
+        <v>5.236016570689415</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.618439927200014</v>
+        <v>5.018732587398492e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.236016570689415</v>
+        <v>3214794551.860858</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.018732587398492e-17</v>
+        <v>3.742091440750429e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>3214794551.860858</v>
+        <v>518.6811954600626</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.742091440750429e-08</v>
+        <v>0.0001383484489022829</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>518.6811954600626</v>
+        <v>9.120058893194871</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001383484489022829</v>
+        <v>1.271487589845373</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.120058893194871</v>
+        <v>0.01150719784440451</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.271487589845373</v>
+        <v>3.425893667696691</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01150719784440451</v>
+        <v>0.9601794844580626</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.425893667696691</v>
+        <v>1.137699431126957</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9601794844580626</v>
+        <v>52</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.137699431126957</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.177856450894093</v>
       </c>
     </row>
@@ -4508,72 +4484,66 @@
         <v>9.696298944592681e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.116631061182037</v>
+        <v>3.281173218226277e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.31836563662783</v>
+        <v>2.209266929598067e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.281173218226277e-07</v>
+        <v>0.005135453682064447</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.209266929598067e-06</v>
+        <v>0.1518940792872832</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.005135453682064447</v>
+        <v>0.02308413454294081</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1518940792872832</v>
+        <v>1.920274846502769</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02308413454294081</v>
+        <v>2.599388445083128</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.94366693680458</v>
+        <v>5.167917424993685</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.599388445083128</v>
+        <v>5.151870632685393e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.167917424993685</v>
+        <v>3123787415.197711</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.151870632685393e-17</v>
+        <v>3.884830722314421e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>3123787415.197711</v>
+        <v>502.7219997222914</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.884830722314421e-08</v>
+        <v>0.0001387505940274069</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>502.7219997222914</v>
+        <v>9.877066252053456</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001387505940274069</v>
+        <v>1.152396281487787</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.877066252053456</v>
+        <v>0.01353601368865689</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.152396281487787</v>
+        <v>3.179859546406314</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01353601368865689</v>
+        <v>0.9614124513659432</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.179859546406314</v>
+        <v>1.148746038205586</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9614124513659432</v>
+        <v>50</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.148746038205586</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.035227912791558</v>
       </c>
     </row>
@@ -4588,72 +4558,66 @@
         <v>9.671068803882056e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1102667058279618</v>
+        <v>2.998889002965266e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.325741010991665</v>
+        <v>2.209425372059159e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.998889002965266e-07</v>
+        <v>-0.001592798106916711</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.209425372059159e-06</v>
+        <v>0.1420886760355139</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.001592798106916711</v>
+        <v>0.02018167109681144</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1420886760355139</v>
+        <v>1.918491274720066</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02018167109681144</v>
+        <v>2.590673252807762</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.940268675531852</v>
+        <v>5.178870486106247</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.590673252807762</v>
+        <v>5.130101761658549e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.178870486106247</v>
+        <v>3157999187.153247</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.130101761658549e-17</v>
+        <v>3.843174942302157e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>3157999187.153247</v>
+        <v>511.6229384772557</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.843174942302157e-08</v>
+        <v>0.0001467722277635515</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>511.6229384772557</v>
+        <v>10.0078804199932</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001467722277635515</v>
+        <v>1.167043801360159</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.0078804199932</v>
+        <v>0.01470036442702238</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.167043801360159</v>
+        <v>3.085691422545571</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01470036442702238</v>
+        <v>0.9611317271456835</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.085691422545571</v>
+        <v>1.179156465179032</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9611317271456835</v>
+        <v>58</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.179156465179032</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.9487772617120311</v>
       </c>
     </row>
@@ -4668,72 +4632,66 @@
         <v>9.726293279850223e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.116355289380054</v>
+        <v>2.998889002965266e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.329170587852091</v>
+        <v>2.20898336363613e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.998889002965266e-07</v>
+        <v>-0.007354134931111846</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.20898336363613e-06</v>
+        <v>0.1328821838114249</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.007354134931111846</v>
+        <v>0.01770380067634441</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1328821838114249</v>
+        <v>1.918533525997254</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01770380067634441</v>
+        <v>2.58746193012689</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.93868484445339</v>
+        <v>4.830873667932678</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.58746193012689</v>
+        <v>5.89582683728183e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.830873667932678</v>
+        <v>2725014259.77674</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.89582683728183e-17</v>
+        <v>4.454395034791714e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>2725014259.77674</v>
+        <v>437.8065735859021</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.454395034791714e-08</v>
+        <v>0.0001450950316893895</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>437.8065735859021</v>
+        <v>9.023606128494329</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001450950316893895</v>
+        <v>1.261149444813454</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.023606128494329</v>
+        <v>0.01181443079626082</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.261149444813454</v>
+        <v>3.24644096884905</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01181443079626082</v>
+        <v>0.9606960506055661</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.24644096884905</v>
+        <v>1.205681454318088</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9606960506055661</v>
+        <v>49</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.205681454318088</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>1.039844700738345</v>
       </c>
     </row>
@@ -4748,72 +4706,66 @@
         <v>9.830477193069374e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.1178970219289554</v>
+        <v>2.998889002965266e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.351570487201389</v>
+        <v>2.208006396653665e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.998889002965266e-07</v>
+        <v>-0.01245345124213998</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.208006396653665e-06</v>
+        <v>0.1241068958917065</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.01245345124213998</v>
+        <v>0.01555151626167932</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1241068958917065</v>
+        <v>1.918524357309539</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01555151626167932</v>
+        <v>2.644502700892763</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.937927192998409</v>
+        <v>4.583218113595248</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.644502700892763</v>
+        <v>6.550207065833333e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.583218113595248</v>
+        <v>2440814823.476746</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>6.550207065833333e-17</v>
+        <v>4.972402050550111e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>2440814823.476746</v>
+        <v>390.2336297704668</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.972402050550111e-08</v>
+        <v>0.0001367654357681198</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>390.2336297704668</v>
+        <v>7.807041301574048</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001367654357681198</v>
+        <v>1.463730299263855</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.807041301574048</v>
+        <v>0.008335838797131977</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.463730299263855</v>
+        <v>3.420528919742954</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.008335838797131977</v>
+        <v>0.9591243099406598</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.420528919742954</v>
+        <v>1.191293079420156</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9591243099406598</v>
+        <v>53</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.191293079420156</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.113243058412883</v>
       </c>
     </row>
@@ -4828,72 +4780,66 @@
         <v>9.959285189856959e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.107118552763234</v>
+        <v>2.998889002965266e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.391478337690566</v>
+        <v>2.206552390342944e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.998889002965266e-07</v>
+        <v>-0.01676158555956624</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.206552390342944e-06</v>
+        <v>0.1163099050814475</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.01676158555956624</v>
+        <v>0.01380417100818396</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1163099050814475</v>
+        <v>1.913818809051573</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01380417100818396</v>
+        <v>2.668981569453726</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.936809726631188</v>
+        <v>4.572305393276417</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.668981569453726</v>
+        <v>6.581511133660923e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.572305393276417</v>
+        <v>2461581398.835927</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>6.581511133660923e-17</v>
+        <v>4.919965094518824e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>2461581398.835927</v>
+        <v>398.7989656635553</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.919965094518824e-08</v>
+        <v>0.0001301609610800585</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>398.7989656635553</v>
+        <v>8.143870223349886</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001301609610800585</v>
+        <v>1.3405653886159</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.143870223349886</v>
+        <v>0.00863261624882344</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.3405653886159</v>
+        <v>3.329680103796523</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.00863261624882344</v>
+        <v>0.9603356774245624</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.329680103796523</v>
+        <v>1.223108689973932</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9603356774245624</v>
+        <v>56</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.223108689973932</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>1.007969001015689</v>
       </c>
     </row>
@@ -4908,72 +4854,66 @@
         <v>1.009314363457797e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.08188626480254435</v>
+        <v>2.998889002965266e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.438815646927369</v>
+        <v>2.204675676033826e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.998889002965266e-07</v>
+        <v>-0.02061368791929242</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.204675676033826e-06</v>
+        <v>0.1088309881538622</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.02061368791929242</v>
+        <v>0.01226426318975585</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1088309881538622</v>
+        <v>1.909320584456767</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01226426318975585</v>
+        <v>2.68380146676169</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.927816502468864</v>
+        <v>4.527403369633813</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.68380146676169</v>
+        <v>6.712707149907663e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.527403369633813</v>
+        <v>2262431376.142313</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>6.712707149907663e-17</v>
+        <v>5.326247138828033e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>2262431376.142313</v>
+        <v>343.5963416602656</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.326247138828033e-08</v>
+        <v>0.0001359667991074905</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>343.5963416602656</v>
+        <v>8.973289669380746</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001359667991074905</v>
+        <v>1.300780008740251</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.973289669380746</v>
+        <v>0.01094803680526618</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.300780008740251</v>
+        <v>3.070671496370762</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01094803680526618</v>
+        <v>0.9601973087062123</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.070671496370762</v>
+        <v>1.262877553568486</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9601973087062123</v>
+        <v>61</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.262877553568486</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.8616712649431864</v>
       </c>
     </row>
@@ -4988,72 +4928,66 @@
         <v>1.021663949228349e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.04186082627757499</v>
+        <v>2.998889002965266e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.482503079539955</v>
+        <v>2.202369125849142e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.998889002965266e-07</v>
+        <v>-0.02488713918879053</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.202369125849142e-06</v>
+        <v>0.09971988595562702</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.02488713918879053</v>
+        <v>0.01055698040992781</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.09971988595562702</v>
+        <v>1.913845026759423</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01055698040992781</v>
+        <v>2.638692451916473</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.934598386366144</v>
+        <v>4.317395150739381</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.638692451916473</v>
+        <v>7.381633552893282e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.317395150739381</v>
+        <v>2085611817.05596</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>7.381633552893282e-17</v>
+        <v>5.791533530878774e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>2085611817.05596</v>
+        <v>321.0845727788684</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.791533530878774e-08</v>
+        <v>0.000135037578311286</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>321.0845727788684</v>
+        <v>8.66847091845346</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000135037578311286</v>
+        <v>1.303009137166741</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.66847091845346</v>
+        <v>0.01014704611269935</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.303009137166741</v>
+        <v>3.100906504180514</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01014704611269935</v>
+        <v>0.9606281654840236</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.100906504180514</v>
+        <v>1.245785162485372</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9606281654840236</v>
+        <v>61</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.245785162485372</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.8143478899607395</v>
       </c>
     </row>
@@ -5068,72 +5002,66 @@
         <v>1.03126775789044e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.01210556376404122</v>
+        <v>2.998889002965266e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.510909701003037</v>
+        <v>2.199573037077698e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.998889002965266e-07</v>
+        <v>-0.02934675917063938</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.199573037077698e-06</v>
+        <v>0.08945394120150928</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.02934675917063938</v>
+        <v>0.008859150816380687</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.08945394120150928</v>
+        <v>1.908469104334224</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.008859150816380687</v>
+        <v>2.52779194769825</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.929250532362832</v>
+        <v>4.366234229212758</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.52779194769825</v>
+        <v>7.217420694082377e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.366234229212758</v>
+        <v>2166647459.127361</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>7.217420694082377e-17</v>
+        <v>5.55654879709952e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>2166647459.127361</v>
+        <v>338.8117975801889</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>5.55654879709952e-08</v>
+        <v>0.0001306502669790031</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>338.8117975801889</v>
+        <v>8.402957082042446</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001306502669790031</v>
+        <v>1.378820861380274</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.402957082042446</v>
+        <v>0.009225174552267909</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.378820861380274</v>
+        <v>3.241772043494762</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.009225174552267909</v>
+        <v>0.9607861722544988</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.241772043494762</v>
+        <v>1.250409268532997</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9607861722544988</v>
+        <v>78</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.250409268532997</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>1.047628846615007</v>
       </c>
     </row>
@@ -5148,72 +5076,66 @@
         <v>1.036987077234162e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.07436491982345808</v>
+        <v>2.998889002965266e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.518974913883545</v>
+        <v>2.196393857001976e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.998889002965266e-07</v>
+        <v>-0.03160660807654583</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.196393857001976e-06</v>
+        <v>0.08510004849141919</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.03160660807654583</v>
+        <v>0.008240477830199478</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.08510004849141919</v>
+        <v>1.909150633411477</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.008240477830199478</v>
+        <v>2.475662375251999</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.928499834527487</v>
+        <v>4.29423698333304</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.475662375251999</v>
+        <v>7.461464287294903e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.29423698333304</v>
+        <v>2148293984.27594</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>7.461464287294903e-17</v>
+        <v>5.619908036776817e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>2148293984.27594</v>
+        <v>344.3590407032113</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.619908036776817e-08</v>
+        <v>0.0001168385594107914</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>344.3590407032113</v>
+        <v>7.775802219740948</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001168385594107914</v>
+        <v>1.710873990607306</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.775802219740948</v>
+        <v>0.007064421520266513</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.710873990607306</v>
+        <v>3.663816217505508</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.007064421520266513</v>
+        <v>0.9607524541103186</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.663816217505508</v>
+        <v>1.274934550916923</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9607524541103186</v>
+        <v>78</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.274934550916923</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>1.487445455011763</v>
       </c>
     </row>
@@ -5228,72 +5150,66 @@
         <v>1.039658138020068e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1393193038265517</v>
+        <v>2.998889002965266e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.511393680941277</v>
+        <v>2.193110115792993e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.998889002965266e-07</v>
+        <v>-0.03124330378276032</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.193110115792993e-06</v>
+        <v>0.08500754465906155</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.03124330378276032</v>
+        <v>0.008202301170810942</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.08500754465906155</v>
+        <v>1.912681803000944</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.008202301170810942</v>
+        <v>2.406769382711054</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.930858252231848</v>
+        <v>4.309226598377074</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.406769382711054</v>
+        <v>8.535521079218217e-17</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.309226598377074</v>
+        <v>1933792571.775681</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>8.535521079218217e-17</v>
+        <v>6.254606704400355e-08</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1933792571.775681</v>
+        <v>319.1903952416275</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>6.254606704400355e-08</v>
+        <v>0.0001097673561452022</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>319.1903952416275</v>
+        <v>7.245259558178678</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001097673561452022</v>
+        <v>2.234387713412233</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.245259558178678</v>
+        <v>0.005762104110448563</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>2.234387713412233</v>
+        <v>3.844905591910326</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.005762104110448563</v>
+        <v>0.9602404360854769</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.844905591910326</v>
+        <v>1.269346414350091</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9602404360854769</v>
+        <v>78</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.269346414350091</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>1.522051585311313</v>
       </c>
     </row>
@@ -5308,72 +5224,66 @@
         <v>1.040566067278949e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2046736813860463</v>
+        <v>2.998889002965266e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.492816617009613</v>
+        <v>2.189952388137029e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.998889002965266e-07</v>
+        <v>-0.02933060757838585</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.189952388137029e-06</v>
+        <v>0.08579890191129097</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.02933060757838585</v>
+        <v>0.008221314391000972</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.08579890191129097</v>
+        <v>1.892671259725603</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.008221314391000972</v>
+        <v>2.192662843227471</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.892883088213681</v>
+        <v>5.69808461519856</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.192662843227471</v>
+        <v>8.660181883006507e-17</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.69808461519856</v>
+        <v>1904473612.575438</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>8.660181883006507e-17</v>
+        <v>6.338979066057517e-08</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1904473612.575438</v>
+        <v>314.106506502817</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>6.338979066057517e-08</v>
+        <v>0.0001118352785175476</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>314.106506502817</v>
+        <v>7.77104521652976</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001118352785175476</v>
+        <v>1.359021801435229</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.77104521652976</v>
+        <v>0.006753636711539467</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.359021801435229</v>
+        <v>3.489261905318149</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.006753636711539467</v>
+        <v>0.9609943843483976</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.489261905318149</v>
+        <v>1.348697779368926</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9609943843483976</v>
+        <v>79</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.348697779368926</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>1.269703153865203</v>
       </c>
     </row>
@@ -5388,72 +5298,66 @@
         <v>1.040526200409501e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2692269109467009</v>
+        <v>2.998889002965266e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.465827253507188</v>
+        <v>2.187003180208569e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.998889002965266e-07</v>
+        <v>-0.02745551001097519</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.187003180208569e-06</v>
+        <v>0.08624447946960369</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.02745551001097519</v>
+        <v>0.008191696086224866</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.08624447946960369</v>
+        <v>1.892018689372495</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.008191696086224866</v>
+        <v>2.12319466071965</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.886481738487686</v>
+        <v>5.324956144756857</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.12319466071965</v>
+        <v>2.106169518869168e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.324956144756857</v>
+        <v>789031258.071339</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.106169518869168e-16</v>
+        <v>1.530758591997547e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>789031258.071339</v>
+        <v>131.1238644423603</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.530758591997547e-07</v>
+        <v>0.0001237810687604367</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>131.1238644423603</v>
+        <v>7.208018602982748</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001237810687604367</v>
+        <v>1.801988108222704</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.208018602982748</v>
+        <v>0.00643111130137468</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.801988108222704</v>
+        <v>3.446128136333513</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.00643111130137468</v>
+        <v>0.9605476698391577</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.446128136333513</v>
+        <v>1.480856058878652</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9605476698391577</v>
+        <v>70</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.480856058878652</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.9122782244377041</v>
       </c>
     </row>
@@ -5468,72 +5372,66 @@
         <v>1.040231103216542e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.3325954273830553</v>
+        <v>2.998889002965266e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.432493403029998</v>
+        <v>2.184210703735566e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.998889002965266e-07</v>
+        <v>-0.026373491421472</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.184210703735566e-06</v>
+        <v>0.08627458374256504</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.026373491421472</v>
+        <v>0.008138755085474068</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.08627458374256504</v>
+        <v>1.891130816596995</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.008138755085474068</v>
+        <v>2.133570526799371</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.88428854818886</v>
+        <v>4.231912329550129</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.133570526799371</v>
+        <v>3.428765605049194e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.231912329550129</v>
+        <v>477662044.7880388</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3.428765605049194e-16</v>
+        <v>2.529160004659247e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>477662044.7880388</v>
+        <v>78.23106887544334</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.529160004659247e-07</v>
+        <v>0.0001403143403296145</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>78.23106887544334</v>
+        <v>7.061304995003423</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001403143403296145</v>
+        <v>1.978621307466</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.061304995003423</v>
+        <v>0.006996357598934279</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.978621307466</v>
+        <v>3.282773743488196</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.006996357598934279</v>
+        <v>0.9607790659352057</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.282773743488196</v>
+        <v>1.464148167911046</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9607790659352057</v>
+        <v>70</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.464148167911046</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.5006081134990521</v>
       </c>
     </row>
@@ -5548,72 +5446,66 @@
         <v>1.040118491602608e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.3951327618263443</v>
+        <v>2.998889002965266e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.393922924706147</v>
+        <v>2.181485477707064e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.998889002965266e-07</v>
+        <v>-0.02617267070929642</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.181485477707064e-06</v>
+        <v>0.08626173369119434</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.02617267070929642</v>
+        <v>0.008126031038076523</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.08626173369119434</v>
+        <v>1.889048563603833</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.008126031038076523</v>
+        <v>2.076943694366228</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.881034780366583</v>
+        <v>3.986725932484036</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.076943694366228</v>
+        <v>3.863477248392467e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.986725932484036</v>
+        <v>420466671.2066151</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.863477248392467e-16</v>
+        <v>2.867409892041553e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>420466671.2066151</v>
+        <v>68.3032725827251</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.867409892041553e-07</v>
+        <v>0.0001372348087714993</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>68.3032725827251</v>
+        <v>8.280656254033333</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001372348087714993</v>
+        <v>1.272044676828389</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.280656254033333</v>
+        <v>0.009410090381233298</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.272044676828389</v>
+        <v>3.086769518129203</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.009410090381233298</v>
+        <v>0.9613607373529705</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.086769518129203</v>
+        <v>1.468414231192906</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9613607373529705</v>
+        <v>53</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.468414231192906</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.3523230162667555</v>
       </c>
     </row>
@@ -5628,72 +5520,66 @@
         <v>1.040177674110586e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.4577556005669715</v>
+        <v>2.998889002965266e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.349010819547462</v>
+        <v>2.178734895208086e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.998889002965266e-07</v>
+        <v>-0.02687534135783038</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.178734895208086e-06</v>
+        <v>0.08624703574773504</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.02687534135783038</v>
+        <v>0.008160720056738806</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.08624703574773504</v>
+        <v>1.878544575602096</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.008160720056738806</v>
+        <v>2.027309904579619</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.870892673323642</v>
+        <v>3.976614054488453</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.027309904579619</v>
+        <v>3.883150608966043e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.976614054488453</v>
+        <v>394292665.7429655</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>3.883150608966043e-16</v>
+        <v>3.02816309600193e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>394292665.7429655</v>
+        <v>60.37006350823923</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.02816309600193e-07</v>
+        <v>0.0001416418889268561</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>60.37006350823923</v>
+        <v>9.275039436193209</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001416418889268561</v>
+        <v>1.193176132902344</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>9.275039436193209</v>
+        <v>0.01218493563823712</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.193176132902344</v>
+        <v>2.887653946666541</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01218493563823712</v>
+        <v>0.9601972447559837</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.887653946666541</v>
+        <v>1.495873874697998</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9601972447559837</v>
+        <v>53</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.495873874697998</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.3004557058720512</v>
       </c>
     </row>
@@ -5708,72 +5594,66 @@
         <v>1.04002140651167e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.5218353841662192</v>
+        <v>2.998889002965266e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.294336595613693</v>
+        <v>2.175865768313675e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.998889002965266e-07</v>
+        <v>-0.02835676199531088</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.175865768313675e-06</v>
+        <v>0.08601438141806388</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.02835676199531088</v>
+        <v>0.008202372117229699</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.08601438141806388</v>
+        <v>1.878878675186382</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.008202372117229699</v>
+        <v>1.910736098374949</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.87007998433231</v>
+        <v>4.076513781181752</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.910736098374949</v>
+        <v>3.695160370568083e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.076513781181752</v>
+        <v>408471782.3290651</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>3.695160370568083e-16</v>
+        <v>2.920867647810138e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>408471782.3290651</v>
+        <v>61.65345404643126</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.920867647810138e-07</v>
+        <v>0.0001462672767726869</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>61.65345404643126</v>
+        <v>9.543754058280424</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001462672767726869</v>
+        <v>1.197610707963799</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.543754058280424</v>
+        <v>0.01332249769748249</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.197610707963799</v>
+        <v>2.768372345964915</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01332249769748249</v>
+        <v>0.9616224021515956</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.768372345964915</v>
+        <v>1.494512878891008</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9616224021515956</v>
+        <v>53</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.494512878891008</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2843662137384544</v>
       </c>
     </row>
@@ -5788,72 +5668,66 @@
         <v>1.039443475578341e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.5878509608406346</v>
+        <v>2.998889002965266e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.227532368383433</v>
+        <v>2.17283979290256e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.998889002965266e-07</v>
+        <v>-0.02978968630542821</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.17283979290256e-06</v>
+        <v>0.08588576290449042</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.02978968630542821</v>
+        <v>0.008263652973386318</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.08588576290449042</v>
+        <v>1.874799710337189</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.008263652973386318</v>
+        <v>2.051768493030532</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.871311946990777</v>
+        <v>4.12765080431798</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.051768493030532</v>
+        <v>3.604169629943002e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.12765080431798</v>
+        <v>430981981.3711284</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>3.604169629943002e-16</v>
+        <v>2.766568714891497e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>430981981.3711284</v>
+        <v>66.94581756259625</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.766568714891497e-07</v>
+        <v>0.0001470275746773264</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>66.94581756259625</v>
+        <v>8.54275919266574</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001470275746773264</v>
+        <v>1.255769264386277</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.54275919266574</v>
+        <v>0.01072988635476857</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.255769264386277</v>
+        <v>2.913423128322337</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01072988635476857</v>
+        <v>0.9603936323833941</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.913423128322337</v>
+        <v>1.480246870727888</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9603936323833941</v>
+        <v>72</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.480246870727888</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2727604584863094</v>
       </c>
     </row>
@@ -5868,72 +5742,66 @@
         <v>1.038607387255348e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.6551955174014846</v>
+        <v>2.998889002965266e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.148786733535575</v>
+        <v>2.169682670976383e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.998889002965266e-07</v>
+        <v>-0.03095997704650863</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.169682670976383e-06</v>
+        <v>0.08587168874839195</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.03095997704650863</v>
+        <v>0.008332378958030713</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.08587168874839195</v>
+        <v>1.869508249995809</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.008332378958030713</v>
+        <v>2.141312496160824</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.870917214696481</v>
+        <v>4.086727724242397</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.141312496160824</v>
+        <v>3.67671285179368e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.086727724242397</v>
+        <v>423371902.6916282</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>3.67671285179368e-16</v>
+        <v>2.809664539039498e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>423371902.6916282</v>
+        <v>65.90278653680862</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.809664539039498e-07</v>
+        <v>0.0001629072172975573</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>65.90278653680862</v>
+        <v>7.957605335385152</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001629072172975573</v>
+        <v>1.572774208199279</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>7.957605335385152</v>
+        <v>0.01031585235197073</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.572774208199279</v>
+        <v>2.961810566557637</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01031585235197073</v>
+        <v>0.9608702805979814</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.961810566557637</v>
+        <v>1.498664483145518</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9608702805979814</v>
+        <v>71</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.498664483145518</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2603276986512442</v>
       </c>
     </row>
@@ -5948,72 +5816,66 @@
         <v>1.037403364600235e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.7238640624213144</v>
+        <v>2.998889002965266e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.056990877673068</v>
+        <v>2.166403950884814e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.998889002965266e-07</v>
+        <v>-0.03227965531739047</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.166403950884814e-06</v>
+        <v>0.085712688153939</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.03227965531739047</v>
+        <v>0.008388493035435337</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.085712688153939</v>
+        <v>1.876949291823351</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.008388493035435337</v>
+        <v>2.083885429344689</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.876728027072011</v>
+        <v>4.05117343705961</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.083885429344689</v>
+        <v>3.741531866803297e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.05117343705961</v>
+        <v>435433142.2195312</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.741531866803297e-16</v>
+        <v>2.745315158734759e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>435433142.2195312</v>
+        <v>70.94020048658064</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.745315158734759e-07</v>
+        <v>0.000159015482202015</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>70.94020048658064</v>
+        <v>8.965090610016821</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.000159015482202015</v>
+        <v>1.305474246763814</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.965090610016821</v>
+        <v>0.01278052744237881</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.305474246763814</v>
+        <v>2.915811286705476</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01278052744237881</v>
+        <v>0.9614233862928923</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.915811286705476</v>
+        <v>1.48670717307882</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9614233862928923</v>
+        <v>65</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.48670717307882</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2652649555715215</v>
       </c>
     </row>
@@ -6028,72 +5890,66 @@
         <v>1.035150788711536e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.7950388659267215</v>
+        <v>3.017531100900881e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.9473389587284089</v>
+        <v>2.162960308832654e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.017531100900881e-07</v>
+        <v>-0.03433402366096782</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.162960308832654e-06</v>
+        <v>0.08487443491458976</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.03433402366096782</v>
+        <v>0.008381810956187586</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.08487443491458976</v>
+        <v>1.885441748779844</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.008381810956187586</v>
+        <v>1.974476976491777</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.879017222873949</v>
+        <v>4.067251136037894</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.974476976491777</v>
+        <v>3.712010047109258e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.067251136037894</v>
+        <v>449835100.4517279</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.712010047109258e-16</v>
+        <v>2.674019172236184e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>449835100.4517279</v>
+        <v>75.11312375741313</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.674019172236184e-07</v>
+        <v>0.0001550827245893426</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>75.11312375741313</v>
+        <v>10.29628261151269</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001550827245893426</v>
+        <v>1.129389702574806</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.29628261151269</v>
+        <v>0.01644085243842763</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.129389702574806</v>
+        <v>2.730197880746489</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01644085243842763</v>
+        <v>0.9610175049387883</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.730197880746489</v>
+        <v>1.451136813365571</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9610175049387883</v>
+        <v>74</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.451136813365571</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2684657376442391</v>
       </c>
     </row>
@@ -6108,72 +5964,66 @@
         <v>1.03038806070405e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.8707573332346584</v>
+        <v>3.06564014509635e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.8104718006881519</v>
+        <v>2.159252880148759e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.06564014509635e-07</v>
+        <v>-0.03767124984343406</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.159252880148759e-06</v>
+        <v>0.0819833677286865</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.03767124984343406</v>
+        <v>0.008138195255599879</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.0819833677286865</v>
+        <v>1.891334785568545</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.008138195255599879</v>
+        <v>2.118377574159218</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.883106481565819</v>
+        <v>4.057958036843955</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.118377574159218</v>
+        <v>3.729031207440186e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.057958036843955</v>
+        <v>448442857.1171837</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.729031207440186e-16</v>
+        <v>2.686177329696612e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>448442857.1171837</v>
+        <v>74.99118903020548</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.686177329696612e-07</v>
+        <v>0.0001530855942490766</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>74.99118903020548</v>
+        <v>10.01205918530694</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001530855942490766</v>
+        <v>1.144100708028894</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>10.01205918530694</v>
+        <v>0.01534550343819697</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.144100708028894</v>
+        <v>2.734461344339013</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01534550343819697</v>
+        <v>0.9607483718465981</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.734461344339013</v>
+        <v>1.45337173298967</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9607483718465981</v>
+        <v>61</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.45337173298967</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2655458118962304</v>
       </c>
     </row>
@@ -6188,72 +6038,66 @@
         <v>1.020793164075011e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.952155457711173</v>
+        <v>3.107371551549783e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.6360306731842087</v>
+        <v>2.155165188604795e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>3.107371551549783e-07</v>
+        <v>-0.04199805426369437</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.155165188604795e-06</v>
+        <v>0.07685863162093665</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.04199805426369437</v>
+        <v>0.00766903873509467</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.07685863162093665</v>
+        <v>1.890624416135389</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.00766903873509467</v>
+        <v>2.091928049666054</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.881931845927464</v>
+        <v>4.005987704932459</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.091928049666054</v>
+        <v>3.826413474624803e-16</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.005987704932459</v>
+        <v>431916718.0503668</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.826413474624803e-16</v>
+        <v>2.787993456059314e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>431916718.0503668</v>
+        <v>71.3825282933367</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.787993456059314e-07</v>
+        <v>0.0001524422389741494</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>71.3825282933367</v>
+        <v>8.982412058104249</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001524422389741494</v>
+        <v>1.228172155019142</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>8.982412058104249</v>
+        <v>0.01229960789838518</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.228172155019142</v>
+        <v>2.873941096852719</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01229960789838518</v>
+        <v>0.96069516560187</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.873941096852719</v>
+        <v>1.471731756382724</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.96069516560187</v>
+        <v>61</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.471731756382724</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2754151863702807</v>
       </c>
     </row>
@@ -6268,72 +6112,66 @@
         <v>1.005180200480178e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.037277933134474</v>
+        <v>3.139491170774945e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.4240813510170018</v>
+        <v>2.150713184530192e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>3.139491170774945e-07</v>
+        <v>-0.04565208016307673</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.150713184530192e-06</v>
+        <v>0.07395534506401054</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.04565208016307673</v>
+        <v>0.007552965174066239</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.07395534506401054</v>
+        <v>1.889314440875212</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.007552965174066239</v>
+        <v>1.966372832819665</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.882272956958125</v>
+        <v>3.9495417284646</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.966372832819665</v>
+        <v>3.936567547893822e-16</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.9495417284646</v>
+        <v>410231097.5387837</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.936567547893822e-16</v>
+        <v>2.937455022619643e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>410231097.5387837</v>
+        <v>66.24831945162539</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>2.937455022619643e-07</v>
+        <v>0.000166486325387813</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>66.24831945162539</v>
+        <v>8.423020490682248</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.000166486325387813</v>
+        <v>1.460851056750876</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.423020490682248</v>
+        <v>0.0118117509755842</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.460851056750876</v>
+        <v>2.92216372529658</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.0118117509755842</v>
+        <v>0.9610816759984647</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.92216372529658</v>
+        <v>1.455763451505595</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9610816759984647</v>
+        <v>44</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.455763451505595</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.3137739355495316</v>
       </c>
     </row>
@@ -6348,72 +6186,66 @@
         <v>9.842479044028388e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.124585114176097</v>
+        <v>3.15792150702046e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.17839112471645</v>
+        <v>2.146029866321399e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>3.15792150702046e-07</v>
+        <v>-0.04836333136464198</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.146029866321399e-06</v>
+        <v>0.07362310052888001</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.04836333136464198</v>
+        <v>0.007759342149947601</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.07362310052888001</v>
+        <v>1.890657723146156</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.007759342149947601</v>
+        <v>1.895155780688934</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.883564950344992</v>
+        <v>3.941730676674948</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.895155780688934</v>
+        <v>3.952184646991022e-16</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.941730676674948</v>
+        <v>404658567.453347</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3.952184646991022e-16</v>
+        <v>2.97082254611461e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>404658567.453347</v>
+        <v>64.7164529833526</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.97082254611461e-07</v>
+        <v>0.0001871191767279608</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>64.7164529833526</v>
+        <v>9.702637579056972</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001871191767279608</v>
+        <v>1.365457417753712</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.702637579056972</v>
+        <v>0.01761561934754977</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.365457417753712</v>
+        <v>2.834401036109957</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01761561934754977</v>
+        <v>0.961032833878615</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.834401036109957</v>
+        <v>1.468115475273331</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.961032833878615</v>
+        <v>44</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.468115475273331</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.4332101874296695</v>
       </c>
     </row>
@@ -6428,72 +6260,66 @@
         <v>9.581693613122844e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.213894570711861</v>
+        <v>3.160460914843834e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.1016972349331402</v>
+        <v>2.141205037161267e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>3.160460914843834e-07</v>
+        <v>-0.05101963138149112</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.141205037161267e-06</v>
+        <v>0.074012776777429</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.05101963138149112</v>
+        <v>0.008080630253586111</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.074012776777429</v>
+        <v>1.883739781698053</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.008080630253586111</v>
+        <v>1.850032786579999</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.880239287832588</v>
+        <v>4.037398338292071</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.850032786579999</v>
+        <v>3.762228311386338e-16</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.037398338292071</v>
+        <v>411663137.7494507</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>3.762228311386338e-16</v>
+        <v>2.90907172233261e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>411663137.7494507</v>
+        <v>63.75718107896954</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.90907172233261e-07</v>
+        <v>0.0002151702516038492</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>63.75718107896954</v>
+        <v>13.36310022485087</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0002151702516038492</v>
+        <v>1.00204653676897</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>13.36310022485087</v>
+        <v>0.0384234784837835</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.00204653676897</v>
+        <v>2.453346628254092</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.0384234784837835</v>
+        <v>0.9594428979804357</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.453346628254092</v>
+        <v>1.498804941552164</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9594428979804357</v>
+        <v>44</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.498804941552164</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.665596903265647</v>
       </c>
     </row>
@@ -6508,72 +6334,66 @@
         <v>9.253676602453234e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.302464067199062</v>
+        <v>3.160460914843834e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.4104303351486549</v>
+        <v>2.136237755387387e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>3.160460914843834e-07</v>
+        <v>-0.05453722581546827</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.136237755387387e-06</v>
+        <v>0.07405567000354349</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.05453722581546827</v>
+        <v>0.008458134486346294</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.07405567000354349</v>
+        <v>1.906980210324923</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.008458134486346294</v>
+        <v>2.096578953267504</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.915717968404755</v>
+        <v>3.846730800445017</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.096578953267504</v>
+        <v>3.528110511384664e-16</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.846730800445017</v>
+        <v>438938339.3080601</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3.528110511384664e-16</v>
+        <v>2.735998658364762e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>438938339.3080601</v>
+        <v>67.97499941229275</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.735998658364762e-07</v>
+        <v>0.0002348025375681004</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>67.97499941229275</v>
+        <v>13.26241875487207</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0002348025375681004</v>
+        <v>1.04835249996085</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>13.26241875487207</v>
+        <v>0.04129982952600296</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.04835249996085</v>
+        <v>2.467291733141451</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.04129982952600296</v>
+        <v>0.9593271446300167</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.467291733141451</v>
+        <v>1.323695340369319</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9593271446300167</v>
+        <v>54</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.323695340369319</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.761508887759093</v>
       </c>
     </row>
@@ -6588,72 +6408,66 @@
         <v>8.843107045305473e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.38256690543932</v>
+        <v>3.160460914843834e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.7205532601072986</v>
+        <v>2.131114524284012e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>3.160460914843834e-07</v>
+        <v>-0.0586951202195875</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.131114524284012e-06</v>
+        <v>0.07513653054401349</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.0586951202195875</v>
+        <v>0.009090652790484805</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.07513653054401349</v>
+        <v>1.908603443497207</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.009090652790484805</v>
+        <v>1.879436603332556</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.925836074458186</v>
+        <v>4.47561785679473</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.879436603332556</v>
+        <v>2.606272214035521e-16</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.47561785679473</v>
+        <v>597611050.6522318</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>2.606272214035521e-16</v>
+        <v>2.006516325269182e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>597611050.6522318</v>
+        <v>93.08013684871806</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.006516325269182e-07</v>
+        <v>0.0002110021678356512</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>93.08013684871806</v>
+        <v>11.18793666396843</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0002110021678356512</v>
+        <v>1.275181929999776</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>11.18793666396843</v>
+        <v>0.02641112590199026</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.275181929999776</v>
+        <v>2.919724252895751</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.02641112590199026</v>
+        <v>0.9598892287805927</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.919724252895751</v>
+        <v>1.240210514808939</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9598892287805927</v>
+        <v>54</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.240210514808939</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.9796079315515649</v>
       </c>
     </row>
@@ -6668,72 +6482,66 @@
         <v>8.350405894820871e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1.443433901174293</v>
+        <v>3.159008224179807e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.9798165982033744</v>
+        <v>2.125884214247072e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>3.159008224179807e-07</v>
+        <v>-0.06278910278727258</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.125884214247072e-06</v>
+        <v>0.0788231751236208</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.06278910278727258</v>
+        <v>0.01015604724150676</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.0788231751236208</v>
+        <v>1.909471062798817</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01015604724150676</v>
+        <v>1.95935985734333</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.928172974492199</v>
+        <v>5.230489784493546</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.95935985734333</v>
+        <v>1.319465876607741e-16</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>5.230489784493546</v>
+        <v>1180659949.169664</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.319465876607741e-16</v>
+        <v>1.014326242618311e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>1180659949.169664</v>
+        <v>183.9279903026242</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.014326242618311e-07</v>
+        <v>0.0001453457540405738</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>183.9279903026242</v>
+        <v>9.056109450248952</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001453457540405738</v>
+        <v>1.390784496601536</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>9.056109450248952</v>
+        <v>0.01192025853141699</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.390784496601536</v>
+        <v>3.486818965957519</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01192025853141699</v>
+        <v>0.9603390723590495</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.486818965957519</v>
+        <v>1.256059069758587</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9603390723590495</v>
+        <v>65</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.256059069758587</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>1.285670755661301</v>
       </c>
     </row>
@@ -6748,72 +6556,66 @@
         <v>7.80101116021869e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1.479322514030432</v>
+        <v>3.087779732596405e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1.143992713532315</v>
+        <v>2.120688720024567e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>3.087779732596405e-07</v>
+        <v>-0.06556636359463106</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.120688720024567e-06</v>
+        <v>0.08471108727566744</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.06556636359463106</v>
+        <v>0.01147385159115642</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.08471108727566744</v>
+        <v>1.913473212295427</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01147385159115642</v>
+        <v>2.203221888239133</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.935252039817044</v>
+        <v>5.191339370164862</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.203221888239133</v>
+        <v>7.807595860161259e-17</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>5.191339370164862</v>
+        <v>2050310692.60714</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>7.807595860161259e-17</v>
+        <v>5.870406398470684e-08</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>2050310692.60714</v>
+        <v>328.2136798147859</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>5.870406398470684e-08</v>
+        <v>0.000119836789193445</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>328.2136798147859</v>
+        <v>8.450941313667878</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.000119836789193445</v>
+        <v>1.213949254466356</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.450941313667878</v>
+        <v>0.00855855283429705</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.213949254466356</v>
+        <v>3.479369082163889</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.00855855283429705</v>
+        <v>0.9601693049735447</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.479369082163889</v>
+        <v>1.209869057358719</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9601693049735447</v>
+        <v>65</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.209869057358719</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>1.337712382551783</v>
       </c>
     </row>
@@ -6828,72 +6630,66 @@
         <v>7.23653845941521e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1.496535879806037</v>
+        <v>2.929316025047264e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1.224161339595364</v>
+        <v>2.115713238962643e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.929316025047264e-07</v>
+        <v>-0.06650863216048022</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.115713238962643e-06</v>
+        <v>0.09012258941275972</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.06650863216048022</v>
+        <v>0.012541618347314</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.09012258941275972</v>
+        <v>1.909951302873911</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.012541618347314</v>
+        <v>2.222674835997525</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.931674750874754</v>
+        <v>5.107275275570775</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>2.222674835997525</v>
+        <v>7.419548807344874e-17</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>5.107275275570775</v>
+        <v>2122841845.056438</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>7.419548807344874e-17</v>
+        <v>5.670106560266529e-08</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>2122841845.056438</v>
+        <v>334.358813629656</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>5.670106560266529e-08</v>
+        <v>0.0001302813188551006</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>334.358813629656</v>
+        <v>8.757431877568083</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001302813188551006</v>
+        <v>1.288094264794312</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.757431877568083</v>
+        <v>0.009991614779841156</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.288094264794312</v>
+        <v>3.236037561173373</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.009991614779841156</v>
+        <v>0.9600942999174227</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.236037561173373</v>
+        <v>1.217279756024804</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9600942999174227</v>
+        <v>65</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.217279756024804</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>1.076446182908987</v>
       </c>
     </row>
@@ -6908,72 +6704,66 @@
         <v>6.687568826601546e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1.506823853840985</v>
+        <v>2.732803014657572e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1.266465551685531</v>
+        <v>2.111099742519205e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.732803014657572e-07</v>
+        <v>-0.06580756270142418</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.111099742519205e-06</v>
+        <v>0.09497313522904538</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.06580756270142418</v>
+        <v>0.01334447519230288</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.09497313522904538</v>
+        <v>1.912823606078866</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.01334447519230288</v>
+        <v>2.096776841464703</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.933098129093537</v>
+        <v>5.559896239510827</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>2.096776841464703</v>
+        <v>1.102328837985225e-16</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>5.559896239510827</v>
+        <v>1436103131.44542</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.102328837985225e-16</v>
+        <v>8.377898857521688e-08</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>1436103131.44542</v>
+        <v>227.3434401867525</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>8.377898857521688e-08</v>
+        <v>0.000147029585833863</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>227.3434401867525</v>
+        <v>8.347586194670257</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.000147029585833863</v>
+        <v>1.324900654469059</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.347586194670257</v>
+        <v>0.01024534431163776</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.324900654469059</v>
+        <v>3.147802624488826</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01024534431163776</v>
+        <v>0.9597681569551256</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.147802624488826</v>
+        <v>1.247037534704652</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9597681569551256</v>
+        <v>65</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.247037534704652</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.7114232027533097</v>
       </c>
     </row>
@@ -6988,72 +6778,66 @@
         <v>6.16479905377709e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1.518597258067843</v>
+        <v>2.531518628208038e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1.308558752042634</v>
+        <v>2.106936387382501e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.531518628208038e-07</v>
+        <v>-0.06350558060842676</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.106936387382501e-06</v>
+        <v>0.1013188955204912</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.06350558060842676</v>
+        <v>0.0142900907761497</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1013188955204912</v>
+        <v>1.918268496055153</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.0142900907761497</v>
+        <v>2.093006479022586</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.934386064040518</v>
+        <v>4.844758909430881</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>2.093006479022586</v>
+        <v>1.807142506447759e-16</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.844758909430881</v>
+        <v>851579809.2746505</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.807142506447759e-16</v>
+        <v>1.413925048787824e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>851579809.2746505</v>
+        <v>131.0518370006886</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.413925048787824e-07</v>
+        <v>0.0001872409980327468</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>131.0518370006886</v>
+        <v>9.362678712863447</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001872409980327468</v>
+        <v>1.385871282127799</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>9.362678712863447</v>
+        <v>0.0164134995791643</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.385871282127799</v>
+        <v>2.859260093995519</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.0164134995791643</v>
+        <v>0.9602150852992</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.859260093995519</v>
+        <v>1.264808519623603</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9602150852992</v>
+        <v>36</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.264808519623603</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.4808087655433159</v>
       </c>
     </row>
@@ -7068,72 +6852,66 @@
         <v>5.669749261877601e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1.534449434643596</v>
+        <v>2.339080134282431e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1.373211739419329</v>
+        <v>2.103291557554671e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.339080134282431e-07</v>
+        <v>-0.0593372376297356</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.103291557554671e-06</v>
+        <v>0.1116228098231933</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.0593372376297356</v>
+        <v>0.01596880727558633</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1116228098231933</v>
+        <v>1.916254370544538</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.01596880727558633</v>
+        <v>2.097013957099535</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.927901605915026</v>
+        <v>4.271870427841668</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.097013957099535</v>
+        <v>2.611778626137613e-16</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.271870427841668</v>
+        <v>586748457.33698</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>2.611778626137613e-16</v>
+        <v>2.049775024253926e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>586748457.33698</v>
+        <v>89.91668275030548</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>2.049775024253926e-07</v>
+        <v>0.0002033778001087754</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>89.91668275030548</v>
+        <v>10.96582321428325</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0002033778001087754</v>
+        <v>1.2127512482307</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>10.96582321428325</v>
+        <v>0.0244560337802817</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.2127512482307</v>
+        <v>2.657918977595213</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.0244560337802817</v>
+        <v>0.9601513804310088</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.657918977595213</v>
+        <v>1.253631441318246</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9601513804310088</v>
+        <v>36</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.253631441318246</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.4011076150826149</v>
       </c>
     </row>
@@ -7148,72 +6926,66 @@
         <v>5.204461279947397e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1.547492370108883</v>
+        <v>2.161750460232536e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1.45911801845483</v>
+        <v>2.100214957131165e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.161750460232536e-07</v>
+        <v>-0.05372863692278869</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.100214957131165e-06</v>
+        <v>0.125644383045987</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.05372863692278869</v>
+        <v>0.01866140732075779</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.125644383045987</v>
+        <v>1.851989051230955</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.01866140732075779</v>
+        <v>1.937602805892612</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.836945883317403</v>
+        <v>5.93514340098741</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.937602805892612</v>
+        <v>3.534378740215011e-16</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>5.93514340098741</v>
+        <v>424074514.174857</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>3.534378740215011e-16</v>
+        <v>2.791038800209459e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>424074514.174857</v>
+        <v>63.56198224205545</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>2.791038800209459e-07</v>
+        <v>0.0001932965854068872</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>63.56198224205545</v>
+        <v>12.38753094812719</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001932965854068872</v>
+        <v>1.042950414390242</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>12.38753094812719</v>
+        <v>0.02966153944165855</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.042950414390242</v>
+        <v>2.522149572333665</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.02966153944165855</v>
+        <v>0.9599386239497124</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.522149572333665</v>
+        <v>1.515292630968175</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9599386239497124</v>
+        <v>37</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.515292630968175</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.4145487481361786</v>
       </c>
     </row>
@@ -7228,72 +7000,66 @@
         <v>4.775109989785805e-08</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1.545127112723588</v>
+        <v>2.002174147724153e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>1.536025823501535</v>
+        <v>2.097660045490495e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>2.002174147724153e-07</v>
+        <v>-0.04899521412813704</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2.097660045490495e-06</v>
+        <v>0.1375079427970614</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.04899521412813704</v>
+        <v>0.02130118026193402</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.1375079427970614</v>
+        <v>1.833099171205301</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.02130118026193402</v>
+        <v>1.768135177840139</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.80710606167867</v>
+        <v>4.77932655707687</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.768135177840139</v>
+        <v>8.485145140468965e-16</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.77932655707687</v>
+        <v>166472383.6575763</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>8.485145140468965e-16</v>
+        <v>7.02838743497932e-07</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>166472383.6575763</v>
+        <v>23.51492898933198</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>7.02838743497932e-07</v>
+        <v>0.0002125208470679912</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>23.51492898933198</v>
+        <v>9.254176900947598</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0002125208470679912</v>
+        <v>1.634660699477283</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>9.254176900947598</v>
+        <v>0.01820024073775909</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.634660699477283</v>
+        <v>2.780314778481312</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.01820024073775909</v>
+        <v>0.9591087964621144</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>2.780314778481312</v>
+        <v>1.656892937482596</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9591087964621144</v>
+        <v>25</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.656892937482596</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.2509134862216502</v>
       </c>
     </row>
@@ -7308,72 +7074,66 @@
         <v>4.382673513723763e-08</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>1.521922188528916</v>
+        <v>1.860650467553965e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1.577537612541618</v>
+        <v>2.095482598456116e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1.860650467553965e-07</v>
+        <v>-0.04656498380173529</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>2.095482598456116e-06</v>
+        <v>0.1467886577277672</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.04656498380173529</v>
+        <v>0.02370945111356603</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.1467886577277672</v>
+        <v>1.832442268079385</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.02370945111356603</v>
+        <v>1.759057919045091</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.804311197047409</v>
+        <v>3.920746190032339</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.759057919045091</v>
+        <v>1.260826210109568e-15</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>3.920746190032339</v>
+        <v>114307042.2543443</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>1.260826210109568e-15</v>
+        <v>1.023770277297325e-06</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>114307042.2543443</v>
+        <v>16.47408122909731</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>1.023770277297325e-06</v>
+        <v>0.0001992538379513068</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>16.47408122909731</v>
+        <v>9.062838888970422</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001992538379513068</v>
+        <v>1.623269708785091</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>9.062838888970422</v>
+        <v>0.01636572368925895</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.623269708785091</v>
+        <v>2.794850441644368</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.01636572368925895</v>
+        <v>0.9595754821170119</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>2.794850441644368</v>
+        <v>1.657020391020407</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9595754821170119</v>
+        <v>25</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.657020391020407</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.1836125576048286</v>
       </c>
     </row>
@@ -7388,72 +7148,66 @@
         <v>4.021026698297084e-08</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>1.478635597482102</v>
+        <v>1.733020196744575e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1.575347584105984</v>
+        <v>2.093539964245551e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1.733020196744575e-07</v>
+        <v>-0.04625650362659912</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>2.093539964245551e-06</v>
+        <v>0.1562183346833067</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.04625650362659912</v>
+        <v>0.02653751010509476</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.1562183346833067</v>
+        <v>1.821942276342288</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.02653751010509476</v>
+        <v>1.746603859718471</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.786634313709196</v>
+        <v>3.739292503796928</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.746603859718471</v>
+        <v>1.386161424817024e-15</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>3.739292503796928</v>
+        <v>104787382.8902728</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>1.386161424817024e-15</v>
+        <v>1.113924235536183e-06</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>104787382.8902728</v>
+        <v>15.22060082796048</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>1.113924235536183e-06</v>
+        <v>0.0001690814020017469</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>15.22060082796048</v>
+        <v>9.948804484972518</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001690814020017469</v>
+        <v>1.205353020430933</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>9.948804484972518</v>
+        <v>0.01673545917013507</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.205353020430933</v>
+        <v>2.727439022926404</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.01673545917013507</v>
+        <v>0.9582131218247827</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>2.727439022926404</v>
+        <v>1.650419180416064</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9582131218247827</v>
+        <v>25</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.650419180416064</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.1772522222834196</v>
       </c>
     </row>
@@ -7468,72 +7222,66 @@
         <v>3.684740141081036e-08</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>1.415979733096093</v>
+        <v>1.613551330036554e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>1.526536834311074</v>
+        <v>2.091745752078973e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1.613551330036554e-07</v>
+        <v>-0.04709669286471699</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>2.091745752078973e-06</v>
+        <v>0.1669912544750571</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.04709669286471699</v>
+        <v>0.03009677189425997</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.1669912544750571</v>
+        <v>1.822757987152631</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.03009677189425997</v>
+        <v>1.741034573671201</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.782632714787449</v>
+        <v>3.736299709621552</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.741034573671201</v>
+        <v>1.388382958228956e-15</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>3.736299709621552</v>
+        <v>110072876.1218665</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>1.388382958228956e-15</v>
+        <v>1.067447194984813e-06</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>110072876.1218665</v>
+        <v>16.82170076061935</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>1.067447194984813e-06</v>
+        <v>0.0001682353381371865</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>16.82170076061935</v>
+        <v>10.66538095413639</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001682353381371865</v>
+        <v>1.12508737456727</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>10.66538095413639</v>
+        <v>0.01913682874635606</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.12508737456727</v>
+        <v>2.537842014844474</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.01913682874635606</v>
+        <v>0.9581582035709582</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>2.537842014844474</v>
+        <v>1.661702159931209</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9581582035709582</v>
+        <v>25</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.661702159931209</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.1786851014789302</v>
       </c>
     </row>
@@ -7548,72 +7296,66 @@
         <v>3.37196581567569e-08</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>1.332341350435721</v>
+        <v>1.499078473475506e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1.423120649396385</v>
+        <v>2.090065950079759e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>1.499078473475506e-07</v>
+        <v>-0.04822071511813321</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>2.090065950079759e-06</v>
+        <v>0.1790279877176695</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.04822071511813321</v>
+        <v>0.03436813731964786</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.1790279877176695</v>
+        <v>1.821283675524962</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.03436813731964786</v>
+        <v>1.724678744639135</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.783557820318273</v>
+        <v>3.761726251502041</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.724678744639135</v>
+        <v>1.36967746619044e-15</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>3.761726251502041</v>
+        <v>112747574.582772</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>1.36967746619044e-15</v>
+        <v>1.042667385662785e-06</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>112747574.582772</v>
+        <v>17.41136128197753</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>1.042667385662785e-06</v>
+        <v>0.0001677301541980521</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>17.41136128197753</v>
+        <v>10.23994974740358</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001677301541980521</v>
+        <v>1.151792496720458</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>10.23994974740358</v>
+        <v>0.01758760879388596</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.151792496720458</v>
+        <v>2.572855918449707</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.01758760879388596</v>
+        <v>0.9589296614027223</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>2.572855918449707</v>
+        <v>1.659822608618085</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9589296614027223</v>
+        <v>40</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.659822608618085</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.1745982137563284</v>
       </c>
     </row>
@@ -7628,72 +7370,66 @@
         <v>3.083319019348505e-08</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>1.22411794415887</v>
+        <v>1.388507377099101e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1.251206912351302</v>
+        <v>2.088499361790624e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>1.388507377099101e-07</v>
+        <v>-0.04880436013803053</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>2.088499361790624e-06</v>
+        <v>0.1919475103599715</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.04880436013803053</v>
+        <v>0.03921740202689131</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.1919475103599715</v>
+        <v>1.824782687731857</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.03921740202689131</v>
+        <v>1.762269528364664</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.784985557769808</v>
+        <v>3.759014070284835</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.762269528364664</v>
+        <v>1.371654662110908e-15</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>3.759014070284835</v>
+        <v>111927985.9721058</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1.371654662110908e-15</v>
+        <v>1.051983139296593e-06</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>111927985.9721058</v>
+        <v>17.18391683847797</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>1.051983139296593e-06</v>
+        <v>0.0001766767252892537</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>17.18391683847797</v>
+        <v>8.864796470841103</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001766767252892537</v>
+        <v>1.374939958502528</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>8.864796470841103</v>
+        <v>0.01388407269593206</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.374939958502528</v>
+        <v>2.72556443271313</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.01388407269593206</v>
+        <v>0.9591142635326679</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>2.72556443271313</v>
+        <v>1.645449730159235</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9591142635326679</v>
+        <v>40</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.645449730159235</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.1593313346961346</v>
       </c>
     </row>
@@ -8070,7 +7806,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.481639127359232</v>
+        <v>1.491077958490337</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.373675474509875</v>
@@ -8159,7 +7895,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.4924339200153</v>
+        <v>1.499016634876118</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.314334424389528</v>
@@ -8248,7 +7984,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.50439431166169</v>
+        <v>1.503786188270133</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.253451921276378</v>
@@ -8337,7 +8073,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.506559020942021</v>
+        <v>1.513371379300706</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.287615557887063</v>
@@ -8426,7 +8162,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.511544981149201</v>
+        <v>1.518805628344698</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.220199470596665</v>
@@ -8515,7 +8251,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.503930904727723</v>
+        <v>1.504543006235627</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.401836427940408</v>
@@ -8604,7 +8340,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.528305015847134</v>
+        <v>1.525734861562405</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.274879515878129</v>
@@ -8693,7 +8429,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.518435912073948</v>
+        <v>1.518348531874593</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.34006818309562</v>
@@ -8782,7 +8518,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.490081777098068</v>
+        <v>1.492331518660428</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.371098939536307</v>
@@ -8871,7 +8607,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.548822692124358</v>
+        <v>1.55196933917691</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.277346011709338</v>
@@ -8960,7 +8696,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.517432253427354</v>
+        <v>1.527331204533937</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.319960196918792</v>
@@ -9049,7 +8785,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.534955181204641</v>
+        <v>1.550504983606003</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.329913420207212</v>
@@ -9138,7 +8874,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.50839764671928</v>
+        <v>1.526626581436294</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.422464945978414</v>
@@ -9227,7 +8963,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.531019323713303</v>
+        <v>1.550698718033704</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.18462232370735</v>
@@ -9316,7 +9052,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.569640744320654</v>
+        <v>1.589066072372597</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.38214318882039</v>
@@ -9405,7 +9141,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.560594198200705</v>
+        <v>1.588316425594336</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.433382060155239</v>
@@ -9494,7 +9230,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.552381667423082</v>
+        <v>1.572171635452727</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.447410281470362</v>
@@ -9583,7 +9319,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.566423253172005</v>
+        <v>1.594551897486348</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.292863483185446</v>
@@ -9672,7 +9408,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.578744067893716</v>
+        <v>1.604444195158154</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.449260388966074</v>
@@ -9761,7 +9497,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.589802689961464</v>
+        <v>1.617132879939426</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.457479129381444</v>
@@ -9850,7 +9586,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.570899791928076</v>
+        <v>1.598036527628302</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.569289912582513</v>
@@ -9939,7 +9675,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.568733076876216</v>
+        <v>1.597970920401864</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.486537468377023</v>
@@ -10028,7 +9764,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.550354530028569</v>
+        <v>1.578246931625408</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.517974439243501</v>
@@ -10117,7 +9853,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.575287062267993</v>
+        <v>1.602648266408641</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.623593795182972</v>
@@ -10206,7 +9942,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.577744624564096</v>
+        <v>1.60559850016305</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.525714444753532</v>
@@ -10295,7 +10031,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.584082631600081</v>
+        <v>1.607766856945564</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.64942733705152</v>
@@ -10384,7 +10120,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.578206948655072</v>
+        <v>1.598383496476167</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.44211196088134</v>
@@ -10473,7 +10209,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.570973134192389</v>
+        <v>1.592659570099245</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.51235038917231</v>
@@ -10562,7 +10298,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.571595275122015</v>
+        <v>1.595858886331243</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.538235465688009</v>
@@ -10651,7 +10387,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.592274068085523</v>
+        <v>1.614967422034537</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.578541410139648</v>
@@ -10740,7 +10476,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.543459181568335</v>
+        <v>1.554154956609676</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.384521747449324</v>
@@ -10829,7 +10565,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.557821366481745</v>
+        <v>1.580841221024415</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.227625857211595</v>
@@ -10918,7 +10654,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.546399015150764</v>
+        <v>1.568364960617044</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.416499544903377</v>
@@ -11007,7 +10743,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.509263904501756</v>
+        <v>1.535235825421249</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.409676920027357</v>
@@ -11096,7 +10832,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.504938598737039</v>
+        <v>1.529743738089517</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.357731730997481</v>
@@ -11185,7 +10921,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.527878220025816</v>
+        <v>1.553918715086502</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.366683444455148</v>
@@ -11274,7 +11010,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.531257217279105</v>
+        <v>1.550544595942816</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.177965666110079</v>
@@ -11363,7 +11099,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.550912458263124</v>
+        <v>1.573118597376187</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.380356566451089</v>
@@ -11452,7 +11188,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.552688569616897</v>
+        <v>1.578312537230863</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.360313905438297</v>
@@ -11541,7 +11277,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.528085099324007</v>
+        <v>1.555325222334174</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.336872472192669</v>
@@ -11630,7 +11366,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.535824160638104</v>
+        <v>1.555026047062519</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.31128000812359</v>
@@ -11719,7 +11455,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.541517462688262</v>
+        <v>1.56568525864693</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.497484073647341</v>
@@ -11808,7 +11544,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.577078605033089</v>
+        <v>1.595022699213143</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.441746582121318</v>
@@ -11897,7 +11633,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.571725923952302</v>
+        <v>1.585694833798563</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.418151847279249</v>
@@ -11986,7 +11722,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.573297886445774</v>
+        <v>1.573405008134513</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.467698606861947</v>
@@ -12075,7 +11811,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.546011274166204</v>
+        <v>1.558738304334156</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.282755724705977</v>
@@ -12164,7 +11900,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.555501454724019</v>
+        <v>1.56474514277737</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.485338983563107</v>
@@ -12253,7 +11989,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.561218909394162</v>
+        <v>1.567654203608813</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.4533370877804</v>
@@ -12342,7 +12078,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.600749633802262</v>
+        <v>1.60437349888888</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.467961560488356</v>
@@ -12431,7 +12167,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.600553338890891</v>
+        <v>1.604509451473342</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.389581972698324</v>
@@ -12520,7 +12256,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.568961846664469</v>
+        <v>1.575406426765423</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.483816698454461</v>
@@ -12609,7 +12345,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.574551262676354</v>
+        <v>1.581646984452787</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.347384551020542</v>
@@ -12698,7 +12434,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.582963553922832</v>
+        <v>1.591859357115431</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.40287347937891</v>
@@ -12787,7 +12523,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.585599760579682</v>
+        <v>1.592151224038024</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.464039258720094</v>
@@ -12876,7 +12612,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.561445876651241</v>
+        <v>1.561730102639517</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.327636229659935</v>
@@ -12965,7 +12701,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.550624008766917</v>
+        <v>1.567320899402411</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.454937065940916</v>
@@ -13054,7 +12790,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.503721206742415</v>
+        <v>1.521526069700869</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.500218621900605</v>
@@ -13143,7 +12879,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.475478587625108</v>
+        <v>1.493382892211031</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.312952867007052</v>
@@ -13232,7 +12968,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.475458424886943</v>
+        <v>1.494259030232803</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.327942804638782</v>
@@ -13321,7 +13057,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.446531485835309</v>
+        <v>1.465781099857791</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.208852553132318</v>
@@ -13410,7 +13146,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.480219988455042</v>
+        <v>1.505285238573836</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.242237784901998</v>
@@ -13499,7 +13235,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.458433363852676</v>
+        <v>1.485166256612759</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.290112184356121</v>
@@ -13588,7 +13324,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.460980903220116</v>
+        <v>1.4886298439891</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.334566210515969</v>
@@ -13677,7 +13413,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.458615167561579</v>
+        <v>1.479579086086216</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.329229283074401</v>
@@ -13766,7 +13502,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.455031159038852</v>
+        <v>1.471692785883322</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.308350340077955</v>
@@ -13855,7 +13591,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.474318164669488</v>
+        <v>1.488247783659471</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.267461508668613</v>
@@ -13944,7 +13680,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.467203741196327</v>
+        <v>1.482978049383521</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.227347488959757</v>
@@ -14033,7 +13769,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.456726724704245</v>
+        <v>1.469685279757746</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.259366817393382</v>
@@ -14122,7 +13858,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.428276116451831</v>
+        <v>1.439710380801497</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.275458609400757</v>
@@ -14211,7 +13947,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.466649802064515</v>
+        <v>1.47617449885636</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.962929051101917</v>
@@ -14300,7 +14036,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.476948588981034</v>
+        <v>1.482613092669447</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.158581209974303</v>
@@ -14389,7 +14125,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.516759260970157</v>
+        <v>1.51750004748995</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.194622433450986</v>
@@ -14478,7 +14214,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.551199652363445</v>
+        <v>1.549409126067225</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.214574406103689</v>
@@ -14567,7 +14303,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.573559782433575</v>
+        <v>1.571006148133646</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.060236514615448</v>
@@ -14656,7 +14392,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.637943183748299</v>
+        <v>1.622209221342405</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.378550993190002</v>
@@ -14745,7 +14481,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.587656606417646</v>
+        <v>1.576606738063189</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.2573069187264</v>
@@ -14834,7 +14570,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.590809955527147</v>
+        <v>1.569304801053996</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.330986675315657</v>
@@ -14923,7 +14659,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.54147835474383</v>
+        <v>1.528430484306959</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.108956097854232</v>
@@ -15012,7 +14748,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.537135009770623</v>
+        <v>1.531727244891931</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.242147078288683</v>
@@ -15101,7 +14837,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.491975957074773</v>
+        <v>1.49359451042294</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.318723238178239</v>
@@ -15190,7 +14926,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.490679673753778</v>
+        <v>1.492931866826749</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.222015521635164</v>
@@ -15279,7 +15015,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.49629686486485</v>
+        <v>1.494237598149759</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.27228159478876</v>
@@ -15368,7 +15104,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.502318051478829</v>
+        <v>1.500823505355317</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.371519431275627</v>
@@ -15457,7 +15193,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.533474156618531</v>
+        <v>1.529695542669203</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.353954851633323</v>
@@ -15546,7 +15282,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.531718375786823</v>
+        <v>1.52790500416018</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.231402733328397</v>
@@ -15635,7 +15371,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.525101073995246</v>
+        <v>1.516282753812857</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.297000074687388</v>
@@ -15724,7 +15460,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.489755785932566</v>
+        <v>1.484141202418495</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.225750263798414</v>
@@ -16010,7 +15746,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.62801562684362</v>
+        <v>1.603886460458931</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.648305715485666</v>
@@ -16099,7 +15835,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.635401026044236</v>
+        <v>1.609164778984551</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.573601866670892</v>
@@ -16188,7 +15924,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.6403864659935</v>
+        <v>1.606978640933767</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.487240512602997</v>
@@ -16277,7 +16013,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.670965044026443</v>
+        <v>1.634054491416365</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.511050041766298</v>
@@ -16366,7 +16102,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.66459973276893</v>
+        <v>1.620989751073482</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.835869844003594</v>
@@ -16455,7 +16191,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.636965911027732</v>
+        <v>1.578521996826181</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.307370531615773</v>
@@ -16544,7 +16280,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.63506171261638</v>
+        <v>1.581605018340013</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.101750811978727</v>
@@ -16633,7 +16369,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.638147387118546</v>
+        <v>1.583584666071373</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.170745238726189</v>
@@ -16722,7 +16458,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.629793379797582</v>
+        <v>1.578116762620524</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.124321684781663</v>
@@ -16811,7 +16547,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.63754048118823</v>
+        <v>1.587931624001528</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.351830469776096</v>
@@ -16900,7 +16636,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.648466668729845</v>
+        <v>1.599522696869453</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.386423646600618</v>
@@ -16989,7 +16725,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.662726263256525</v>
+        <v>1.620455542234442</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.159610913831297</v>
@@ -17078,7 +16814,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.647003526817451</v>
+        <v>1.607024354253902</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.038176815414227</v>
@@ -17167,7 +16903,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.641254154270871</v>
+        <v>1.605598003585739</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.789905875912075</v>
@@ -17256,7 +16992,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.656536254149002</v>
+        <v>1.621104109273199</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.332149943422185</v>
@@ -17345,7 +17081,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.662188109240285</v>
+        <v>1.634426564117217</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.403806350240068</v>
@@ -17434,7 +17170,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.646659861170979</v>
+        <v>1.62681343289537</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.447519623096311</v>
@@ -17523,7 +17259,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.652478134986174</v>
+        <v>1.644988000486581</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.385342369531498</v>
@@ -17612,7 +17348,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.662888843292839</v>
+        <v>1.652916260981865</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.194926843233919</v>
@@ -17701,7 +17437,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.676102034939499</v>
+        <v>1.667520626461303</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.340400663428845</v>
@@ -17790,7 +17526,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.671582233145965</v>
+        <v>1.669213702728209</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.122709902316004</v>
@@ -17879,7 +17615,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.678858789307737</v>
+        <v>1.673713011298445</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.454763072813305</v>
@@ -17968,7 +17704,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.672301154739224</v>
+        <v>1.670353193562574</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.204145418916089</v>
@@ -18057,7 +17793,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.673003502288455</v>
+        <v>1.669773102941225</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.350048731670233</v>
@@ -18146,7 +17882,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.685008671975375</v>
+        <v>1.673043479984431</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.293394610607521</v>
@@ -18235,7 +17971,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.687856085883965</v>
+        <v>1.673870506418458</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.067400424205989</v>
@@ -18324,7 +18060,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.685383509271765</v>
+        <v>1.66124982150914</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.846916801450149</v>
@@ -18413,7 +18149,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.686651064932587</v>
+        <v>1.666341600229766</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.323206269882422</v>
@@ -18502,7 +18238,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.682874346852095</v>
+        <v>1.666728091064563</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.116913442768547</v>
@@ -18591,7 +18327,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.684343451239964</v>
+        <v>1.667067083535216</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.019641810750668</v>
@@ -18680,7 +18416,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.660922172495416</v>
+        <v>1.629154922731112</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.937481206752702</v>
@@ -18769,7 +18505,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.66535028911437</v>
+        <v>1.632281128797462</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.885698913959256</v>
@@ -18858,7 +18594,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.641549503730395</v>
+        <v>1.601108448071247</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.231085674524128</v>
@@ -18947,7 +18683,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.613692106879521</v>
+        <v>1.578275226783351</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.143693908772171</v>
@@ -19036,7 +18772,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.617939517440107</v>
+        <v>1.579456890320264</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.933328829480656</v>
@@ -19125,7 +18861,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.629804606629686</v>
+        <v>1.587059666136104</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.939314224105674</v>
@@ -19214,7 +18950,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.626670766956321</v>
+        <v>1.582371942202798</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.941205260427435</v>
@@ -19303,7 +19039,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.622667756523062</v>
+        <v>1.57795473580766</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.774957935578561</v>
@@ -19392,7 +19128,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.628378574106959</v>
+        <v>1.584024192265596</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.906724254859861</v>
@@ -19481,7 +19217,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.615842852668785</v>
+        <v>1.579892336413222</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.082070688449966</v>
@@ -19570,7 +19306,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.515901837788891</v>
+        <v>1.494517446271103</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.936598431078677</v>
@@ -19659,7 +19395,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.515224607377691</v>
+        <v>1.502825867633677</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.948876512505972</v>
@@ -19748,7 +19484,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.522769904889494</v>
+        <v>1.502309406859508</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.941300486963661</v>
@@ -19837,7 +19573,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.526349145386522</v>
+        <v>1.502803585570064</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.941608833184657</v>
@@ -19926,7 +19662,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.522385603508043</v>
+        <v>1.494992345684853</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.94819549789523</v>
@@ -20015,7 +19751,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.516317649262144</v>
+        <v>1.496155744190216</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.937977173051979</v>
@@ -20104,7 +19840,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.52738748965753</v>
+        <v>1.507135938018755</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.942691488594968</v>
@@ -20193,7 +19929,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.537524921082333</v>
+        <v>1.520052999069297</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.948425812598642</v>
@@ -20282,7 +20018,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.547449458378723</v>
+        <v>1.529061032046956</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.937218594934592</v>
@@ -20371,7 +20107,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.549101851217872</v>
+        <v>1.527204172447931</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.909917911530338</v>
@@ -20460,7 +20196,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.545656428740665</v>
+        <v>1.528263447341955</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.925376034289011</v>
@@ -20549,7 +20285,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.548318126279435</v>
+        <v>1.528804780568276</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.913979836917985</v>
@@ -20638,7 +20374,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.558150705356288</v>
+        <v>1.53540757628644</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.936842249145125</v>
@@ -20727,7 +20463,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.554835817026873</v>
+        <v>1.532888448085317</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.919524379133567</v>
@@ -20816,7 +20552,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.563519915137502</v>
+        <v>1.539408721629407</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.882209740308653</v>
@@ -20905,7 +20641,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.659617012145302</v>
+        <v>1.632224813262365</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.306132782424033</v>
@@ -20994,7 +20730,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.637344583184199</v>
+        <v>1.611319590747397</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.567788359674918</v>
@@ -21083,7 +20819,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.596405530817759</v>
+        <v>1.58763343356631</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.397589986575026</v>
@@ -21172,7 +20908,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.59944173190447</v>
+        <v>1.597502381323456</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.394716492793767</v>
@@ -21261,7 +20997,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.58997400870942</v>
+        <v>1.588214583393528</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.528378076532158</v>
@@ -21350,7 +21086,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.596608935334262</v>
+        <v>1.598893682958436</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.355147258717261</v>
@@ -21439,7 +21175,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.597548298405717</v>
+        <v>1.598601594168276</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.410063488289516</v>
@@ -21528,7 +21264,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.599550100803904</v>
+        <v>1.604849373973201</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.329238326201677</v>
@@ -21617,7 +21353,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.594548498627318</v>
+        <v>1.597908819447801</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.403405352976943</v>
@@ -21706,7 +21442,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.586275716856687</v>
+        <v>1.589813913330241</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.385901095849727</v>
@@ -21795,7 +21531,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.59121506264207</v>
+        <v>1.590971508018317</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.36990183186555</v>
@@ -21884,7 +21620,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.581691848020971</v>
+        <v>1.586331558199082</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.408311865986335</v>
@@ -21973,7 +21709,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.576333850199721</v>
+        <v>1.582884390604612</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.37004496573273</v>
@@ -22062,7 +21798,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.576510850694261</v>
+        <v>1.580550178270868</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.406551037835793</v>
@@ -22151,7 +21887,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.59000816698572</v>
+        <v>1.591599964616384</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.074472631445391</v>
@@ -22240,7 +21976,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.601323326016615</v>
+        <v>1.593327863003118</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.270329004087196</v>
@@ -22329,7 +22065,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.619000242427006</v>
+        <v>1.605654989968496</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.249336971655731</v>
@@ -22418,7 +22154,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.656024141905873</v>
+        <v>1.63132546268881</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.198888877715584</v>
@@ -22507,7 +22243,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.661405783801377</v>
+        <v>1.62903056926701</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.057735139646533</v>
@@ -22596,7 +22332,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.685815601777344</v>
+        <v>1.653959125905263</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.023296174533295</v>
@@ -22685,7 +22421,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.681260551822385</v>
+        <v>1.651316657460207</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.891806774223424</v>
@@ -22774,7 +22510,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.677939015509719</v>
+        <v>1.644988911195255</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.025567800001114</v>
@@ -22863,7 +22599,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.676567930712022</v>
+        <v>1.644568088954764</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.048353967765186</v>
@@ -22952,7 +22688,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.692568541502586</v>
+        <v>1.666938193246569</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.422045122387021</v>
@@ -23041,7 +22777,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.713441004145886</v>
+        <v>1.699084347029985</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.359476066828741</v>
@@ -23130,7 +22866,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.711683620088987</v>
+        <v>1.702784519247064</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.097811289369663</v>
@@ -23219,7 +22955,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.727013372208843</v>
+        <v>1.714457957669753</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.330572916744438</v>
@@ -23308,7 +23044,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.738536938816315</v>
+        <v>1.720096848325918</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.285048083775343</v>
@@ -23397,7 +23133,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.738368416187908</v>
+        <v>1.71746668831787</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.428149021023597</v>
@@ -23486,7 +23222,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.727603810762281</v>
+        <v>1.708146625522787</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.229172439874707</v>
@@ -23575,7 +23311,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.719862460613197</v>
+        <v>1.698021626704121</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.362849497080763</v>
@@ -23664,7 +23400,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.720268782198449</v>
+        <v>1.696826260133924</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.982112014842468</v>
@@ -23950,7 +23686,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.550124611963332</v>
+        <v>1.549214054827346</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.146882145093062</v>
@@ -24039,7 +23775,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.555046331503992</v>
+        <v>1.547434608144574</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.127659492396155</v>
@@ -24128,7 +23864,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.558872891303896</v>
+        <v>1.547440914079975</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.149937230123058</v>
@@ -24217,7 +23953,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.606678315042757</v>
+        <v>1.586836904337585</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.224223124753077</v>
@@ -24306,7 +24042,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.613602690993061</v>
+        <v>1.592471722158406</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.050016222931298</v>
@@ -24395,7 +24131,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.605212931565948</v>
+        <v>1.576082356817464</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.094640509894528</v>
@@ -24484,7 +24220,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.602568147606336</v>
+        <v>1.575940863959976</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.038274039928479</v>
@@ -24573,7 +24309,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.594009949337713</v>
+        <v>1.566442043617969</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.086860616007653</v>
@@ -24662,7 +24398,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.584177949287665</v>
+        <v>1.55302544241547</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.041631270217239</v>
@@ -24751,7 +24487,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.591537820853802</v>
+        <v>1.561845420599719</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.982338567051134</v>
@@ -24840,7 +24576,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.6599619048418</v>
+        <v>1.614007371651941</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.094209381129536</v>
@@ -24929,7 +24665,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.667299296545931</v>
+        <v>1.627420450832743</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.352964234384394</v>
@@ -25018,7 +24754,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.648242012685565</v>
+        <v>1.607278091124124</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.40843839867056</v>
@@ -25107,7 +24843,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.644795115657838</v>
+        <v>1.609604564483312</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.845431870593672</v>
@@ -25196,7 +24932,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.665706392309476</v>
+        <v>1.633819549275576</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.243716179747866</v>
@@ -25285,7 +25021,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.664785749692071</v>
+        <v>1.639540800502151</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.521549712789056</v>
@@ -25374,7 +25110,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.657074704429304</v>
+        <v>1.641681369289432</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.398367387254674</v>
@@ -25463,7 +25199,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.662576086736709</v>
+        <v>1.653618574001229</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.439857005410481</v>
@@ -25552,7 +25288,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.668105087214048</v>
+        <v>1.661404753198703</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.291234714140809</v>
@@ -25641,7 +25377,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.673630596559517</v>
+        <v>1.665242045131409</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.331804068362863</v>
@@ -25730,7 +25466,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.666564579120182</v>
+        <v>1.663794960112918</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.286648941029934</v>
@@ -25819,7 +25555,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.674429474364487</v>
+        <v>1.665594176478915</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.2532323404745</v>
@@ -25908,7 +25644,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.675161620938756</v>
+        <v>1.671702100785232</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.015613902332501</v>
@@ -25997,7 +25733,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.679568484894687</v>
+        <v>1.677072687237166</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.258500555254179</v>
@@ -26086,7 +25822,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.692354007985789</v>
+        <v>1.680474545203998</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.162038274604314</v>
@@ -26175,7 +25911,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.704376284792904</v>
+        <v>1.694080419900893</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.131086442535145</v>
@@ -26264,7 +26000,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.704425670749944</v>
+        <v>1.683033313000535</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.782649753768927</v>
@@ -26353,7 +26089,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.706545698130887</v>
+        <v>1.688420504524952</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.853360879498169</v>
@@ -26442,7 +26178,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.710626981903</v>
+        <v>1.690307656272128</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.156649290372398</v>
@@ -26531,7 +26267,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.706003437756261</v>
+        <v>1.68013661168402</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.884037974391082</v>
@@ -26620,7 +26356,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.684220383269575</v>
+        <v>1.648470318403579</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.734932355409359</v>
@@ -26709,7 +26445,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.682254947132093</v>
+        <v>1.646745919695886</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.713273421812895</v>
@@ -26798,7 +26534,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.66663738470457</v>
+        <v>1.630530519751222</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.07682256495749</v>
@@ -26887,7 +26623,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.637916176634163</v>
+        <v>1.609037942684885</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.865234188378097</v>
@@ -26976,7 +26712,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.654493423380715</v>
+        <v>1.625492139484263</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.531225870152786</v>
@@ -27065,7 +26801,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.665018929921895</v>
+        <v>1.629783980278287</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.813462638185301</v>
@@ -27154,7 +26890,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.654954466236195</v>
+        <v>1.619664905617579</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.023924173410665</v>
@@ -27243,7 +26979,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.644619456832658</v>
+        <v>1.60539471480115</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.82023828553986</v>
@@ -27332,7 +27068,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.648234459397661</v>
+        <v>1.607461086419855</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.965054963205007</v>
@@ -27421,7 +27157,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.636034253601774</v>
+        <v>1.604342201388065</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.133225624125274</v>
@@ -27510,7 +27246,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.491549621793701</v>
+        <v>1.478008878250825</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.80992522387196</v>
@@ -27599,7 +27335,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.487936425832189</v>
+        <v>1.48097723208768</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.811722561331027</v>
@@ -27688,7 +27424,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.496701847025201</v>
+        <v>1.484942346816408</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.823945270840895</v>
@@ -27777,7 +27513,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.499162450146221</v>
+        <v>1.488595135240084</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.818472514557189</v>
@@ -27866,7 +27602,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.497319683493383</v>
+        <v>1.48361460833358</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.831830294870255</v>
@@ -27955,7 +27691,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.496010781910797</v>
+        <v>1.488994471937128</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.822857517935853</v>
@@ -28044,7 +27780,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.505155430198757</v>
+        <v>1.497648338737748</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.829627450986791</v>
@@ -28133,7 +27869,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.507962815342089</v>
+        <v>1.501863310233795</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.825095719207473</v>
@@ -28222,7 +27958,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.518161792826605</v>
+        <v>1.510451994981372</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.821991056025634</v>
@@ -28311,7 +28047,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.521521718794832</v>
+        <v>1.51109578603917</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.809364022674405</v>
@@ -28400,7 +28136,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.516757057100155</v>
+        <v>1.509783617142628</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.816357832118204</v>
@@ -28489,7 +28225,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.517592389164155</v>
+        <v>1.50996476978507</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.808683052803819</v>
@@ -28578,7 +28314,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.525954965340861</v>
+        <v>1.520622548727643</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.805841770522307</v>
@@ -28667,7 +28403,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.52853508108119</v>
+        <v>1.518420243903701</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.806731898784579</v>
@@ -28756,7 +28492,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.540596368664473</v>
+        <v>1.523303713512695</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.764977720651933</v>
@@ -28845,7 +28581,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.687946680097151</v>
+        <v>1.649236909529938</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.490206677132183</v>
@@ -28934,7 +28670,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.672706524783034</v>
+        <v>1.636454124307215</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.893327636177876</v>
@@ -29023,7 +28759,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.628061770811832</v>
+        <v>1.608134427769598</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.677809800657339</v>
@@ -29112,7 +28848,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.621203956107606</v>
+        <v>1.604538879090284</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.563691120835752</v>
@@ -29201,7 +28937,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.614548992190865</v>
+        <v>1.601686323851633</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.605100630028663</v>
@@ -29290,7 +29026,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.625113243140778</v>
+        <v>1.613819520137819</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.552749895385109</v>
@@ -29379,7 +29115,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.617949268265296</v>
+        <v>1.611020118486285</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.644755474478373</v>
@@ -29468,7 +29204,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.622696244393016</v>
+        <v>1.620432577978348</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.461858705772189</v>
@@ -29557,7 +29293,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.616258621971122</v>
+        <v>1.609243335214618</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.61816174281179</v>
@@ -29646,7 +29382,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.608638324858428</v>
+        <v>1.598355741790205</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.521690740638609</v>
@@ -29735,7 +29471,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.616007904672768</v>
+        <v>1.598901531442011</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.526523385771794</v>
@@ -29824,7 +29560,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.609951096077978</v>
+        <v>1.597250406765619</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.725249709125874</v>
@@ -29913,7 +29649,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.611552709096532</v>
+        <v>1.597430871841061</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.637989921914996</v>
@@ -30002,7 +29738,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.605849900575065</v>
+        <v>1.594857554916083</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.569777609700083</v>
@@ -30091,7 +29827,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.601442452162987</v>
+        <v>1.592087529010791</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.344320246892717</v>
@@ -30180,7 +29916,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.612042521752861</v>
+        <v>1.599906940605444</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.410777220951188</v>
@@ -30269,7 +30005,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.62671722870331</v>
+        <v>1.610963013023339</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.354574984962425</v>
@@ -30358,7 +30094,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.664830921424805</v>
+        <v>1.637726331340679</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.301770926229924</v>
@@ -30447,7 +30183,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.676185744849233</v>
+        <v>1.649227873658165</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.074534560358514</v>
@@ -30536,7 +30272,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.691155001992926</v>
+        <v>1.658807949475959</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.151721085455166</v>
@@ -30625,7 +30361,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.694045353354175</v>
+        <v>1.663671928967156</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.015000645738788</v>
@@ -30714,7 +30450,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.701532886676768</v>
+        <v>1.661572313549427</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.505795250437484</v>
@@ -30803,7 +30539,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.703584989030887</v>
+        <v>1.662966634494929</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.081572621309747</v>
@@ -30892,7 +30628,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.708708995431109</v>
+        <v>1.673560710360626</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.524042418631382</v>
@@ -30981,7 +30717,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.701388151374903</v>
+        <v>1.676853223100057</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.495579383331266</v>
@@ -31070,7 +30806,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.690589618025601</v>
+        <v>1.672130180919596</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.137687330146052</v>
@@ -31159,7 +30895,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.702817113506499</v>
+        <v>1.679306290410577</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.372003775151505</v>
@@ -31248,7 +30984,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.705294154447407</v>
+        <v>1.67752082724589</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.21247693491749</v>
@@ -31337,7 +31073,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.710735376628235</v>
+        <v>1.683815747399307</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.388784394648143</v>
@@ -31426,7 +31162,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.719073882217532</v>
+        <v>1.68861526662753</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.355896745291539</v>
@@ -31515,7 +31251,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.710549420499443</v>
+        <v>1.674561784094513</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.531759632685422</v>
@@ -31604,7 +31340,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.709592372129863</v>
+        <v>1.670032805442603</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.196109294379978</v>
@@ -31890,7 +31626,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.624487392445918</v>
+        <v>1.600353491159454</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.847907161501346</v>
@@ -31979,7 +31715,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.635810761608472</v>
+        <v>1.612753626920781</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.711304582503305</v>
@@ -32068,7 +31804,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.653176927365113</v>
+        <v>1.622419877275665</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.883417539158521</v>
@@ -32157,7 +31893,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.687187387351324</v>
+        <v>1.652087112014665</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.634466795681037</v>
@@ -32246,7 +31982,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.68205686369801</v>
+        <v>1.646537581663544</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.045278282928296</v>
@@ -32335,7 +32071,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.687263711613573</v>
+        <v>1.647235062989409</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.948395689585143</v>
@@ -32424,7 +32160,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.678134084497083</v>
+        <v>1.644312088330368</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.218230398367979</v>
@@ -32513,7 +32249,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.677696718020324</v>
+        <v>1.642519285890483</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.21629798770638</v>
@@ -32602,7 +32338,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.671809309154388</v>
+        <v>1.635959893703694</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.235187087460139</v>
@@ -32691,7 +32427,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.688589932452883</v>
+        <v>1.648438032269806</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.324521729260425</v>
@@ -32780,7 +32516,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.67975634805448</v>
+        <v>1.648339802902332</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.251027039315273</v>
@@ -32869,7 +32605,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.668207505586615</v>
+        <v>1.640235921347508</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.097826740717395</v>
@@ -32958,7 +32694,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.663842032814497</v>
+        <v>1.63797914990256</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.418191295349581</v>
@@ -33047,7 +32783,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.657864838720206</v>
+        <v>1.640319902342122</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.968040347842002</v>
@@ -33136,7 +32872,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.671333375819427</v>
+        <v>1.649649948124536</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.387863752751942</v>
@@ -33225,7 +32961,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.672488010249167</v>
+        <v>1.652026959170123</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.31320952605845</v>
@@ -33314,7 +33050,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.663580928859295</v>
+        <v>1.647873516170702</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.215830707074972</v>
@@ -33403,7 +33139,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.662064196445493</v>
+        <v>1.655870294928043</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.278631000179275</v>
@@ -33492,7 +33228,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.658023943748626</v>
+        <v>1.651032924140788</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.412048032103293</v>
@@ -33581,7 +33317,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.667078744631034</v>
+        <v>1.66336426517727</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.148061000617278</v>
@@ -33670,7 +33406,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.673330924766713</v>
+        <v>1.676749811978649</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.478555681914648</v>
@@ -33759,7 +33495,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.681664444453156</v>
+        <v>1.680607301322258</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.483912406134209</v>
@@ -33848,7 +33584,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.678039516632592</v>
+        <v>1.681167502121113</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.086995654348597</v>
@@ -33937,7 +33673,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.675788048772938</v>
+        <v>1.681717495349838</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.456597164468901</v>
@@ -34026,7 +33762,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.679110984490398</v>
+        <v>1.683175888565054</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.955179020370386</v>
@@ -34115,7 +33851,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.692169137772161</v>
+        <v>1.691923791811861</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.161005793918999</v>
@@ -34204,7 +33940,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.702551512282943</v>
+        <v>1.690509053406808</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.784977330733893</v>
@@ -34293,7 +34029,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.692325982041256</v>
+        <v>1.68125998196369</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.565147279177143</v>
@@ -34382,7 +34118,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.696745627675114</v>
+        <v>1.686953395513108</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.645064234223159</v>
@@ -34471,7 +34207,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.704136343150983</v>
+        <v>1.694644496659693</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.16467771366014</v>
@@ -34560,7 +34296,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.687898891504129</v>
+        <v>1.67150417088065</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.593217251525673</v>
@@ -34649,7 +34385,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.693269060353862</v>
+        <v>1.674569530424676</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.946258136740821</v>
@@ -34738,7 +34474,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.68623712973012</v>
+        <v>1.658199901733302</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.464433206292603</v>
@@ -34827,7 +34563,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.663879016409831</v>
+        <v>1.640302125051256</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.375708470765642</v>
@@ -34916,7 +34652,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.665816840219136</v>
+        <v>1.638946386193581</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.05991887943677</v>
@@ -35005,7 +34741,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.667029901313558</v>
+        <v>1.632800291400368</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.340023028956341</v>
@@ -35094,7 +34830,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.66944450558098</v>
+        <v>1.634127940196424</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.251210210172625</v>
@@ -35183,7 +34919,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.669627011960152</v>
+        <v>1.633746877366675</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.244745386598781</v>
@@ -35272,7 +35008,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.651193591185416</v>
+        <v>1.618515428016682</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.116437550886639</v>
@@ -35361,7 +35097,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.642390123208354</v>
+        <v>1.61636188897224</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.955677303582209</v>
@@ -35450,7 +35186,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.591244973121185</v>
+        <v>1.572539981673571</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.224067298822546</v>
@@ -35539,7 +35275,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.583659771554596</v>
+        <v>1.576951340887169</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.234914602665779</v>
@@ -35628,7 +35364,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.595865620198487</v>
+        <v>1.584107074282319</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.215558589420926</v>
@@ -35717,7 +35453,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.601957948787532</v>
+        <v>1.584031606347828</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.258568645395764</v>
@@ -35806,7 +35542,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.594731873400548</v>
+        <v>1.574408979841313</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.258898824787904</v>
@@ -35895,7 +35631,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.595712030634615</v>
+        <v>1.582849714609093</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.216760859965333</v>
@@ -35984,7 +35720,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.598289263587396</v>
+        <v>1.588413931966264</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.267665095103711</v>
@@ -36073,7 +35809,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.599791838961086</v>
+        <v>1.59717503589366</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.234586219441198</v>
@@ -36162,7 +35898,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.616548634078562</v>
+        <v>1.613999380781494</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.236349472185697</v>
@@ -36251,7 +35987,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.618027160255801</v>
+        <v>1.611712714889152</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.204307527774549</v>
@@ -36340,7 +36076,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.619893782263802</v>
+        <v>1.618933641297609</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.225604482953536</v>
@@ -36429,7 +36165,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.621114511186669</v>
+        <v>1.619465569272824</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.220702962802026</v>
@@ -36518,7 +36254,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.627338306644501</v>
+        <v>1.625615139658008</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.264017269497117</v>
@@ -36607,7 +36343,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.643159843441585</v>
+        <v>1.635492951387663</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.232346564398234</v>
@@ -36696,7 +36432,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.64877313932538</v>
+        <v>1.635273030432808</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.170025970721377</v>
@@ -36785,7 +36521,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.684769796982577</v>
+        <v>1.665966006115547</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.640175013193451</v>
@@ -36874,7 +36610,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.66903579125633</v>
+        <v>1.656984227386662</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.600622258800132</v>
@@ -36963,7 +36699,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.604759019174056</v>
+        <v>1.608160580550902</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.392770581582693</v>
@@ -37052,7 +36788,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.592682571750173</v>
+        <v>1.598786894991103</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.382816754478608</v>
@@ -37141,7 +36877,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.593304956401778</v>
+        <v>1.597836140966225</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.248406947037608</v>
@@ -37230,7 +36966,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.603179769136282</v>
+        <v>1.606943152114942</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.295494055972763</v>
@@ -37319,7 +37055,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.605933285001549</v>
+        <v>1.612369172752793</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.409003828193369</v>
@@ -37408,7 +37144,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.601781901750694</v>
+        <v>1.606763097919987</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.402640240463098</v>
@@ -37497,7 +37233,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.594827895688349</v>
+        <v>1.5929404847104</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.378755254482579</v>
@@ -37586,7 +37322,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.586514291772923</v>
+        <v>1.587473485829647</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.414324294929754</v>
@@ -37675,7 +37411,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.590314232082336</v>
+        <v>1.586128686168729</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.43922542267183</v>
@@ -37764,7 +37500,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.571843396370762</v>
+        <v>1.572978539095699</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.432567333921383</v>
@@ -37853,7 +37589,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.564889184718672</v>
+        <v>1.563460493023417</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.428621076952752</v>
@@ -37942,7 +37678,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.559812270558834</v>
+        <v>1.560551532660003</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.405018610365549</v>
@@ -38031,7 +37767,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.566709612357271</v>
+        <v>1.568664478716153</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.18408026544303</v>
@@ -38120,7 +37856,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.55080702800465</v>
+        <v>1.550479720469558</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.404786498350373</v>
@@ -38209,7 +37945,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.566433865589031</v>
+        <v>1.562045333584957</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.154677037878129</v>
@@ -38298,7 +38034,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.605408789454438</v>
+        <v>1.589593281442084</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.680144461314775</v>
@@ -38387,7 +38123,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.618328227323493</v>
+        <v>1.596209430760965</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.634922871628313</v>
@@ -38476,7 +38212,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.621352715698949</v>
+        <v>1.598743073755494</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.593426413656322</v>
@@ -38565,7 +38301,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.613494079788052</v>
+        <v>1.596553688753724</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.501163228775658</v>
@@ -38654,7 +38390,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.61456173282513</v>
+        <v>1.58750558066095</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.59032873789167</v>
@@ -38743,7 +38479,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.61419355600077</v>
+        <v>1.590609112262708</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.407792747151555</v>
@@ -38832,7 +38568,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.618560923427738</v>
+        <v>1.599432053405895</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.459733197312013</v>
@@ -38921,7 +38657,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.625473307016874</v>
+        <v>1.611149840500272</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.580908943834967</v>
@@ -39010,7 +38746,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.622468434277114</v>
+        <v>1.61222080512739</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.477040139720685</v>
@@ -39099,7 +38835,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.641631403558664</v>
+        <v>1.62909046524433</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.465761351945041</v>
@@ -39188,7 +38924,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.648062641322261</v>
+        <v>1.629102271698112</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.551688650594625</v>
@@ -39277,7 +39013,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.638984665761139</v>
+        <v>1.620702439972205</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.523137365118873</v>
@@ -39366,7 +39102,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.633935778228725</v>
+        <v>1.614662464631584</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.432314610537403</v>
@@ -39455,7 +39191,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.667665313944061</v>
+        <v>1.63507568878602</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.711807336260809</v>
@@ -39544,7 +39280,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.658067489419818</v>
+        <v>1.623463591694406</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.78911165998466</v>
@@ -39830,7 +39566,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.550105848916278</v>
+        <v>1.523715185549741</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.492964795708755</v>
@@ -39919,7 +39655,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.553979641470794</v>
+        <v>1.527159838491259</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.391522261099589</v>
@@ -40008,7 +39744,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.572997540702276</v>
+        <v>1.537319099135563</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.388901914614021</v>
@@ -40097,7 +39833,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.601252675519303</v>
+        <v>1.554747691148886</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.464660230415789</v>
@@ -40186,7 +39922,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.59616700679157</v>
+        <v>1.547670191594617</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.724446029338218</v>
@@ -40275,7 +40011,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.593084859849393</v>
+        <v>1.534879050683821</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.483108907717011</v>
@@ -40364,7 +40100,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.570773859463605</v>
+        <v>1.516133124336304</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.593288930446694</v>
@@ -40453,7 +40189,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.563866536019378</v>
+        <v>1.50680146029522</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.57259113607744</v>
@@ -40542,7 +40278,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.550454469388919</v>
+        <v>1.496294237377246</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.824972974961687</v>
@@ -40631,7 +40367,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.550839100407973</v>
+        <v>1.500352366895247</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.809069254951846</v>
@@ -40720,7 +40456,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.550614891088581</v>
+        <v>1.504165570325954</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.652531022619071</v>
@@ -40809,7 +40545,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.575737401061773</v>
+        <v>1.542213307132337</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.657467631892588</v>
@@ -40898,7 +40634,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.565891027977386</v>
+        <v>1.530591212071263</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.584040769134098</v>
@@ -40987,7 +40723,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.554341205952142</v>
+        <v>1.530933756144921</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.463073157213372</v>
@@ -41076,7 +40812,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.576046211148751</v>
+        <v>1.552210639022361</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.684226320136399</v>
@@ -41165,7 +40901,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.577207000354638</v>
+        <v>1.554375998695984</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.583707986769544</v>
@@ -41254,7 +40990,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.57595500932876</v>
+        <v>1.559226911265969</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.636951371490809</v>
@@ -41343,7 +41079,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.580222000542096</v>
+        <v>1.576374584995775</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.643183162865927</v>
@@ -41432,7 +41168,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.581711482833624</v>
+        <v>1.579811535161462</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.673201002482698</v>
@@ -41521,7 +41257,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.592752819053213</v>
+        <v>1.590337567815768</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.657328006732323</v>
@@ -41610,7 +41346,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.620538950426466</v>
+        <v>1.623568775368821</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.871192192865036</v>
@@ -41699,7 +41435,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.639897878003953</v>
+        <v>1.640143325519125</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.817953196972581</v>
@@ -41788,7 +41524,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.636546949277043</v>
+        <v>1.643917007229451</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.740941414100332</v>
@@ -41877,7 +41613,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.644458653692778</v>
+        <v>1.652707435204606</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.867879842897255</v>
@@ -41966,7 +41702,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.652373973093786</v>
+        <v>1.6505002279363</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.674156234873928</v>
@@ -42055,7 +41791,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.660253282956125</v>
+        <v>1.658017677908898</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.547909826482288</v>
@@ -42144,7 +41880,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.648605375266118</v>
+        <v>1.632575292223666</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.724963788979551</v>
@@ -42233,7 +41969,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.654573409032184</v>
+        <v>1.638742243343053</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.037837438098022</v>
@@ -42322,7 +42058,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.672106803538663</v>
+        <v>1.652806582368263</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.803302907236096</v>
@@ -42411,7 +42147,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.67048863857013</v>
+        <v>1.650393039074746</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.060493803013882</v>
@@ -42500,7 +42236,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.646447137103323</v>
+        <v>1.618881749195509</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.097281481530747</v>
@@ -42589,7 +42325,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.650796002597629</v>
+        <v>1.616866333849125</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.802569270840812</v>
@@ -42678,7 +42414,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.627873874526218</v>
+        <v>1.588653258147628</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.967245800874621</v>
@@ -42767,7 +42503,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.602713915861085</v>
+        <v>1.569508427708705</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.135756527929958</v>
@@ -42856,7 +42592,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.603260100578293</v>
+        <v>1.570391008295499</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.93779259762676</v>
@@ -42945,7 +42681,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.591743977221328</v>
+        <v>1.552567980412617</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.828895128981536</v>
@@ -43034,7 +42770,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.58407780889529</v>
+        <v>1.538993636607926</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.958006879245146</v>
@@ -43123,7 +42859,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.584666035998484</v>
+        <v>1.536368735913897</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.874342671041777</v>
@@ -43212,7 +42948,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.564594058699083</v>
+        <v>1.520156974068733</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.518692798945496</v>
@@ -43301,7 +43037,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.545598681368426</v>
+        <v>1.511196454103794</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.728162571958804</v>
@@ -43390,7 +43126,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.471345599610084</v>
+        <v>1.444858396565388</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.978488937092093</v>
@@ -43479,7 +43215,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.462544842668601</v>
+        <v>1.444253087123039</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.966930533737341</v>
@@ -43568,7 +43304,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.467747819056171</v>
+        <v>1.446776553981516</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.974930803182286</v>
@@ -43657,7 +43393,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.474822039575368</v>
+        <v>1.451318316573604</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.962130766116176</v>
@@ -43746,7 +43482,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.467321815083889</v>
+        <v>1.437390942916204</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.978380564970763</v>
@@ -43835,7 +43571,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.464102068376333</v>
+        <v>1.447902714440147</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.983432687989318</v>
@@ -43924,7 +43660,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.471731401357627</v>
+        <v>1.458379387321455</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.958260906399344</v>
@@ -44013,7 +43749,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.47939535651431</v>
+        <v>1.469290551083327</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.972289408334109</v>
@@ -44102,7 +43838,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.491234743948057</v>
+        <v>1.483344352511053</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.983852057861343</v>
@@ -44191,7 +43927,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.494669246961661</v>
+        <v>1.48326155178701</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.971255179350886</v>
@@ -44280,7 +44016,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.490352810072499</v>
+        <v>1.481479092046856</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.98476305015617</v>
@@ -44369,7 +44105,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.493489860993366</v>
+        <v>1.486554308117751</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.982098804035234</v>
@@ -44458,7 +44194,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.495859202089309</v>
+        <v>1.486621041425989</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.979557105441495</v>
@@ -44547,7 +44283,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.516807552042098</v>
+        <v>1.500700485799908</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.960534981378306</v>
@@ -44636,7 +44372,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.530082113074801</v>
+        <v>1.508008078613464</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.921858714052769</v>
@@ -44725,7 +44461,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.605743764362155</v>
+        <v>1.583385018723829</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.269940753808606</v>
@@ -44814,7 +44550,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.601101735372148</v>
+        <v>1.59078353065384</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.572472190976682</v>
@@ -44903,7 +44639,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.561379868485156</v>
+        <v>1.564605789660429</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.464279995108975</v>
@@ -44992,7 +44728,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.556482458379363</v>
+        <v>1.561120971780232</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.403207403665343</v>
@@ -45081,7 +44817,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.54633689115406</v>
+        <v>1.55712694756355</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.250897952786365</v>
@@ -45170,7 +44906,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.554226914946601</v>
+        <v>1.568237401582156</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.366564436167273</v>
@@ -45259,7 +44995,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.556189472483429</v>
+        <v>1.57582308321269</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.5008987247253</v>
@@ -45348,7 +45084,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.563000053934953</v>
+        <v>1.582995207636317</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.486030391664729</v>
@@ -45437,7 +45173,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.56258880030406</v>
+        <v>1.577516494487831</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.457450264793348</v>
@@ -45526,7 +45262,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.559212547454471</v>
+        <v>1.576270377980902</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.511945670093508</v>
@@ -45615,7 +45351,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.562594386638348</v>
+        <v>1.579081296866489</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.486888076033948</v>
@@ -45704,7 +45440,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.543192124655075</v>
+        <v>1.56057077259397</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.470372687395394</v>
@@ -45793,7 +45529,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.546633141230788</v>
+        <v>1.568665735071027</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.515393525651066</v>
@@ -45882,7 +45618,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.548489478880062</v>
+        <v>1.571642239156147</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.586940427349743</v>
@@ -45971,7 +45707,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.56053664916585</v>
+        <v>1.585647547582799</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.311030302775741</v>
@@ -46060,7 +45796,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.519318030307812</v>
+        <v>1.54066953013855</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.291007952562835</v>
@@ -46149,7 +45885,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.520213039759978</v>
+        <v>1.536910646010456</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.083021779955482</v>
@@ -46238,7 +45974,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.538990462907672</v>
+        <v>1.556034821939366</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.21564556650253</v>
@@ -46327,7 +46063,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.558975595145955</v>
+        <v>1.572785799342925</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.071929094959672</v>
@@ -46416,7 +46152,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.570698224632429</v>
+        <v>1.58519269423783</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.238627522249512</v>
@@ -46505,7 +46241,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.569527826634892</v>
+        <v>1.582929433532171</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.234944766384453</v>
@@ -46594,7 +46330,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.565082379855275</v>
+        <v>1.569460420342696</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.180534421954918</v>
@@ -46683,7 +46419,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.555442202165053</v>
+        <v>1.562591320755103</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.19844127454705</v>
@@ -46772,7 +46508,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.546992511665987</v>
+        <v>1.556159480001675</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.193882558039519</v>
@@ -46861,7 +46597,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.534442949237296</v>
+        <v>1.545760239461429</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.197193930616449</v>
@@ -46950,7 +46686,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.52786855362309</v>
+        <v>1.541050557530109</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.170904126085111</v>
@@ -47039,7 +46775,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.549347824696488</v>
+        <v>1.564122189092515</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.208692946335547</v>
@@ -47128,7 +46864,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.547069984423589</v>
+        <v>1.557173382223089</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.190169534112842</v>
@@ -47217,7 +46953,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.520720392428941</v>
+        <v>1.52734159200122</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.202840232275324</v>
@@ -47306,7 +47042,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.529349536933682</v>
+        <v>1.535092807457039</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.119906517460528</v>
@@ -47395,7 +47131,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.588271707281995</v>
+        <v>1.582401499311558</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.534430112356104</v>
@@ -47484,7 +47220,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.587729595798764</v>
+        <v>1.581588505638492</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.465042821099789</v>
@@ -47770,7 +47506,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.543483210157918</v>
+        <v>1.554206688295394</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.408531487847872</v>
@@ -47859,7 +47595,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.553007976938764</v>
+        <v>1.564177249655542</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.392734593443312</v>
@@ -47948,7 +47684,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.567156709741799</v>
+        <v>1.570865448146755</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.350889144737963</v>
@@ -48037,7 +47773,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.56453258107356</v>
+        <v>1.570960684298035</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.418534213327765</v>
@@ -48126,7 +47862,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.546661627666631</v>
+        <v>1.551740321246958</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.377764020518842</v>
@@ -48215,7 +47951,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.544030857413886</v>
+        <v>1.546901481821147</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.404436528128048</v>
@@ -48304,7 +48040,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.572796914034726</v>
+        <v>1.57324233994157</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.5073098207478</v>
@@ -48393,7 +48129,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.568330723594233</v>
+        <v>1.570995258758073</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.382705835421983</v>
@@ -48482,7 +48218,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.531713519802643</v>
+        <v>1.539094733112721</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.336928202329743</v>
@@ -48571,7 +48307,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.591598301210588</v>
+        <v>1.597717225593469</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.248787285527397</v>
@@ -48660,7 +48396,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.553441259560409</v>
+        <v>1.565156191020067</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.370162496445587</v>
@@ -48749,7 +48485,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.577222997827665</v>
+        <v>1.591909404781741</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.342900962235205</v>
@@ -48838,7 +48574,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.553993186571673</v>
+        <v>1.571146845530947</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.37172079767074</v>
@@ -48927,7 +48663,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.566849311654139</v>
+        <v>1.586526867231249</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.303116538602486</v>
@@ -49016,7 +48752,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.600390887196775</v>
+        <v>1.616573730497675</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.35907017953936</v>
@@ -49105,7 +48841,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.583437477835403</v>
+        <v>1.609498889778568</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.513502627604743</v>
@@ -49194,7 +48930,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.569701257980388</v>
+        <v>1.592243399534637</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.430959472303948</v>
@@ -49283,7 +49019,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.576604860146993</v>
+        <v>1.608289109875417</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.238240604087325</v>
@@ -49372,7 +49108,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.586506330631193</v>
+        <v>1.620080605007172</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.518995499312052</v>
@@ -49461,7 +49197,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.599043038289157</v>
+        <v>1.632424181185803</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.43919731753084</v>
@@ -49550,7 +49286,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.578777174066669</v>
+        <v>1.617441473849886</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.502904570814199</v>
@@ -49639,7 +49375,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.581267083387806</v>
+        <v>1.621622115705053</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.490270574217998</v>
@@ -49728,7 +49464,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.559589484099941</v>
+        <v>1.599569227463649</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.60325918617725</v>
@@ -49817,7 +49553,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.582858307901273</v>
+        <v>1.623685147535246</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.640496366237114</v>
@@ -49906,7 +49642,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.583158847589042</v>
+        <v>1.623952324042444</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.603856194147289</v>
@@ -49995,7 +49731,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.588455669922655</v>
+        <v>1.628277844945847</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.69396081864601</v>
@@ -50084,7 +49820,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.581757622004905</v>
+        <v>1.621215635937876</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.484166748541487</v>
@@ -50173,7 +49909,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.575973845132784</v>
+        <v>1.6142254644868</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.523480679230484</v>
@@ -50262,7 +49998,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.581731340208616</v>
+        <v>1.619322690516968</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.460854344050035</v>
@@ -50351,7 +50087,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.612550885137292</v>
+        <v>1.650824692495915</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.782314447773143</v>
@@ -50440,7 +50176,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.57250811590859</v>
+        <v>1.60085209262354</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.555569603948183</v>
@@ -50529,7 +50265,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.600434930355008</v>
+        <v>1.636929046920489</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.423424759095151</v>
@@ -50618,7 +50354,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.60580800593615</v>
+        <v>1.639360663621482</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.440334643260642</v>
@@ -50707,7 +50443,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.580686391041015</v>
+        <v>1.613815933617087</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.578837203384571</v>
@@ -50796,7 +50532,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.582852797938706</v>
+        <v>1.614710040349064</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.389027249527971</v>
@@ -50885,7 +50621,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.606645900558244</v>
+        <v>1.634871328780151</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.350215042467724</v>
@@ -50974,7 +50710,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.611758032080405</v>
+        <v>1.636275738878504</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.26448414395251</v>
@@ -51063,7 +50799,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.648181253690187</v>
+        <v>1.675717350530874</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.404354816256115</v>
@@ -51152,7 +50888,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.645012511247479</v>
+        <v>1.673262705976255</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.380721974581184</v>
@@ -51241,7 +50977,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.608671043017307</v>
+        <v>1.643597737816345</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.416730428585315</v>
@@ -51330,7 +51066,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.579759323031419</v>
+        <v>1.619592640287186</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.205677143230792</v>
@@ -51419,7 +51155,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.582561382010141</v>
+        <v>1.620725003468608</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.308163689508155</v>
@@ -51508,7 +51244,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.61716408237784</v>
+        <v>1.648790270013703</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.300965482846848</v>
@@ -51597,7 +51333,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.603212939881296</v>
+        <v>1.639042061746596</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.220313535631191</v>
@@ -51686,7 +51422,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.600358234776822</v>
+        <v>1.624895492854411</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.268004801142997</v>
@@ -51775,7 +51511,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.572598036580154</v>
+        <v>1.608440885417593</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.185497358116431</v>
@@ -51864,7 +51600,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.569656166472293</v>
+        <v>1.60369090558513</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.321620036639485</v>
@@ -51953,7 +51689,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.569110711922047</v>
+        <v>1.601125126252386</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.269762678490757</v>
@@ -52042,7 +51778,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.586970406171223</v>
+        <v>1.619268583219105</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.31913722489408</v>
@@ -52131,7 +51867,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.590485991219809</v>
+        <v>1.617834179338447</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.204887447432841</v>
@@ -52220,7 +51956,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.566785873560945</v>
+        <v>1.595021373772689</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.275112126026601</v>
@@ -52309,7 +52045,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.564271261651517</v>
+        <v>1.591773124901434</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.266551796358777</v>
@@ -52398,7 +52134,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.560692668513679</v>
+        <v>1.584926307050622</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.270911487363432</v>
@@ -52487,7 +52223,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.557588094872328</v>
+        <v>1.579857767500973</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.295697953694761</v>
@@ -52576,7 +52312,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.546722517660819</v>
+        <v>1.560542785854398</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.373016458763561</v>
@@ -52665,7 +52401,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.576882041778637</v>
+        <v>1.588606829592397</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.653936566314242</v>
@@ -52754,7 +52490,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.539440538347336</v>
+        <v>1.551497384316627</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.497883229867236</v>
@@ -52843,7 +52579,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.51366184001274</v>
+        <v>1.523821347644063</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.384793904554951</v>
@@ -52932,7 +52668,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.516557410734772</v>
+        <v>1.524804653677301</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.498303257902749</v>
@@ -53021,7 +52757,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.478305348107095</v>
+        <v>1.484348280548038</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.252309527760551</v>
@@ -53110,7 +52846,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.50856636527609</v>
+        <v>1.517574010726823</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.494424844960479</v>
@@ -53199,7 +52935,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.483585395195671</v>
+        <v>1.495338122764592</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.431397349703153</v>
@@ -53288,7 +53024,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.48403977230858</v>
+        <v>1.495746459269733</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.556878257074351</v>
@@ -53377,7 +53113,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.48122635071021</v>
+        <v>1.490987600784421</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.444734810607517</v>
@@ -53466,7 +53202,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.475867385459066</v>
+        <v>1.485790403740586</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.434538490428496</v>
@@ -53555,7 +53291,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.4938481130248</v>
+        <v>1.502280521450909</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.40488495678963</v>
@@ -53644,7 +53380,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.491586100144122</v>
+        <v>1.500808957086975</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.304023402974658</v>
@@ -53733,7 +53469,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.490792436480998</v>
+        <v>1.498397233802458</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.455528153428486</v>
@@ -53822,7 +53558,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.468955977564787</v>
+        <v>1.479021250136019</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.467341161000063</v>
@@ -53911,7 +53647,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.505090030113166</v>
+        <v>1.511540832654198</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.11751341686319</v>
@@ -54000,7 +53736,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.514127684396655</v>
+        <v>1.520641675672982</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.342182864200213</v>
@@ -54089,7 +53825,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.544528749848213</v>
+        <v>1.547068998431477</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.19933941240007</v>
@@ -54178,7 +53914,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.575734087664338</v>
+        <v>1.57804382119711</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.275891727647135</v>
@@ -54267,7 +54003,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.6008133390533</v>
+        <v>1.601467524246828</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.991172931635513</v>
@@ -54356,7 +54092,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.676134913146742</v>
+        <v>1.669458550032278</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.402848718142612</v>
@@ -54445,7 +54181,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.631905307616378</v>
+        <v>1.625895570024173</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.359973537018957</v>
@@ -54534,7 +54270,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.653339322442783</v>
+        <v>1.635735647976489</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.228461424007332</v>
@@ -54623,7 +54359,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.598577338104114</v>
+        <v>1.587572633685081</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.356853328563241</v>
@@ -54712,7 +54448,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.597283492423797</v>
+        <v>1.594687948488369</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.386538677695433</v>
@@ -54801,7 +54537,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.533049591565303</v>
+        <v>1.533913690659495</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.343174857396264</v>
@@ -54890,7 +54626,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.526425237794386</v>
+        <v>1.528126821965993</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.298251064928872</v>
@@ -54979,7 +54715,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.523116601020714</v>
+        <v>1.527308543452651</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.35493158027824</v>
@@ -55068,7 +54804,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.521214037513046</v>
+        <v>1.525132591669046</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.434233824328121</v>
@@ -55157,7 +54893,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.556525923366727</v>
+        <v>1.554561106770011</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.33755745250268</v>
@@ -55246,7 +54982,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.559697082798027</v>
+        <v>1.558069137242873</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.330732965655722</v>
@@ -55335,7 +55071,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.555904059057793</v>
+        <v>1.555698041074439</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.315608236387282</v>
@@ -55424,7 +55160,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.50835919956263</v>
+        <v>1.515143556744911</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.361514577309056</v>
